--- a/investing spreadsheets/AMZN.xlsx
+++ b/investing spreadsheets/AMZN.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOOK\Desktop\stock-exchange-berkeley\investing spreadsheets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21900" windowHeight="12150" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="78">
   <si>
     <t>Price</t>
   </si>
@@ -215,12 +220,51 @@
   </si>
   <si>
     <t>Annual Return</t>
+  </si>
+  <si>
+    <t>ROIC</t>
+  </si>
+  <si>
+    <t>Maturity</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>Net</t>
+  </si>
+  <si>
+    <t>Share</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
+  </si>
+  <si>
+    <t>Total U.S. Retail Sales</t>
+  </si>
+  <si>
+    <t>Online U.S. Retail Sales</t>
+  </si>
+  <si>
+    <t>Amazon net sales</t>
+  </si>
+  <si>
+    <t>US Penetration of Online Retail</t>
+  </si>
+  <si>
+    <t>US Penetration of Total Retail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -239,18 +283,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -265,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -304,11 +342,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -338,7 +377,7 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -382,7 +421,7 @@
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -392,8 +431,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13049250" y="0"/>
-          <a:ext cx="0" cy="8020050"/>
+          <a:off x="22193250" y="0"/>
+          <a:ext cx="0" cy="9153525"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -708,7 +747,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -719,7 +758,7 @@
   <dimension ref="J1:O9"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -735,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>834.03</v>
+        <v>829.53</v>
       </c>
       <c r="L2" s="2"/>
       <c r="N2" t="s">
@@ -768,7 +807,7 @@
       </c>
       <c r="K4" s="3">
         <f>+K3*K2</f>
-        <v>395330.22</v>
+        <v>393197.22</v>
       </c>
       <c r="L4" s="2"/>
       <c r="N4" t="s">
@@ -820,7 +859,7 @@
       </c>
       <c r="K7" s="3">
         <f>+K4-K5+K6</f>
-        <v>387002.22</v>
+        <v>384869.22</v>
       </c>
       <c r="L7" s="2"/>
       <c r="N7" t="s">
@@ -835,7 +874,7 @@
       <c r="N8" t="s">
         <v>64</v>
       </c>
-      <c r="O8" s="22">
+      <c r="O8" s="21">
         <f>O7/O6</f>
         <v>1.3314865287520666E-2</v>
       </c>
@@ -851,21 +890,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AZ61"/>
+  <dimension ref="B2:JT68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AI26" sqref="AI26"/>
+      <selection pane="bottomRight" activeCell="AG42" sqref="AG42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
     <col min="3" max="12" width="9.140625" style="2"/>
     <col min="13" max="13" width="9.140625" style="2" customWidth="1"/>
     <col min="14" max="14" width="9.140625" style="2"/>
+    <col min="55" max="55" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:52" x14ac:dyDescent="0.2">
@@ -1214,41 +1254,42 @@
         <v>39</v>
       </c>
       <c r="C8" s="4">
-        <f t="shared" ref="C8:K8" si="10">+C21</f>
+        <f>+C27</f>
         <v>15705</v>
       </c>
       <c r="D8" s="4">
-        <f t="shared" si="10"/>
+        <f>+D27</f>
         <v>15251</v>
       </c>
       <c r="E8" s="4">
-        <f t="shared" si="10"/>
+        <f>+E27</f>
         <v>16022</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" si="10"/>
+        <f>+F27</f>
         <v>23102</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" si="10"/>
+        <f>+G27</f>
         <v>17084</v>
       </c>
       <c r="H8" s="4">
-        <f t="shared" si="10"/>
+        <f>+H27</f>
         <v>17104</v>
       </c>
       <c r="I8" s="4">
-        <f t="shared" si="10"/>
+        <f>+I27</f>
         <v>18463</v>
       </c>
       <c r="J8" s="4">
-        <f t="shared" si="10"/>
+        <f>+J27</f>
         <v>26618</v>
       </c>
       <c r="K8" s="4">
-        <f t="shared" si="10"/>
+        <f>+K27</f>
         <v>20581</v>
       </c>
+      <c r="L8" s="4"/>
     </row>
     <row r="9" spans="2:52" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
@@ -1259,35 +1300,35 @@
         <v>191449</v>
       </c>
       <c r="D9" s="6">
-        <f t="shared" ref="D9:K9" si="11">SUM(D3:D8)</f>
+        <f t="shared" ref="D9:K9" si="10">SUM(D3:D8)</f>
         <v>230595</v>
       </c>
       <c r="E9" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>218186</v>
       </c>
       <c r="F9" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>243331</v>
       </c>
       <c r="G9" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>214764</v>
       </c>
       <c r="H9" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>233744</v>
       </c>
       <c r="I9" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>220721</v>
       </c>
       <c r="J9" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>247335</v>
       </c>
       <c r="K9" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>231078</v>
       </c>
       <c r="L9" s="14"/>
@@ -1303,19 +1344,19 @@
         <v>6.613760055508576E-2</v>
       </c>
       <c r="E10" s="15">
-        <f t="shared" ref="E10:H10" si="12">E8/E9</f>
+        <f t="shared" ref="E10:H10" si="11">E8/E9</f>
         <v>7.3432759205448561E-2</v>
       </c>
       <c r="F10" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>9.4940636417061533E-2</v>
       </c>
       <c r="G10" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>7.9547782682386242E-2</v>
       </c>
       <c r="H10" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>7.3174070778287359E-2</v>
       </c>
       <c r="I10" s="15">
@@ -1340,20 +1381,24 @@
       <c r="B12" t="s">
         <v>45</v>
       </c>
+      <c r="G12" s="15">
+        <f t="shared" ref="G12:H12" si="12">G3/C3-1</f>
+        <v>1.1255102445210552E-2</v>
+      </c>
       <c r="H12" s="15">
-        <f t="shared" ref="H12" si="13">H3/D3-1</f>
+        <f t="shared" si="12"/>
         <v>6.8479355488419991E-3</v>
       </c>
       <c r="I12" s="15">
-        <f t="shared" ref="I12" si="14">I3/E3-1</f>
+        <f t="shared" ref="I12" si="13">I3/E3-1</f>
         <v>1.3049764115050877E-2</v>
       </c>
       <c r="J12" s="15">
-        <f t="shared" ref="J12:K12" si="15">J3/F3-1</f>
+        <f t="shared" ref="J12:K12" si="14">J3/F3-1</f>
         <v>2.5863352188151278E-2</v>
       </c>
       <c r="K12" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>2.4846180977387666E-2</v>
       </c>
     </row>
@@ -1361,20 +1406,24 @@
       <c r="B13" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="G13" s="15">
+        <f t="shared" ref="G13:K13" si="15">G4/C4-1</f>
+        <v>6.1157108751968225E-2</v>
+      </c>
       <c r="H13" s="15">
-        <f t="shared" ref="H13:K13" si="16">H4/D4-1</f>
+        <f t="shared" si="15"/>
         <v>4.2753349292343978E-2</v>
       </c>
       <c r="I13" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>6.3511405732111559E-2</v>
       </c>
       <c r="J13" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>9.4875273979751595E-2</v>
       </c>
       <c r="K13" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0.26714853286104057</v>
       </c>
     </row>
@@ -1382,20 +1431,24 @@
       <c r="B14" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="G14" s="15">
+        <f t="shared" ref="G14:K14" si="16">G5/C5-1</f>
+        <v>2.7736086930419734E-2</v>
+      </c>
       <c r="H14" s="15">
-        <f t="shared" ref="H14:K14" si="17">H5/D5-1</f>
+        <f t="shared" si="16"/>
         <v>2.7717166951701344E-2</v>
       </c>
       <c r="I14" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>2.0806769444766449E-2</v>
       </c>
       <c r="J14" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>-5.7468622132316183E-3</v>
       </c>
       <c r="K14" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>-5.5493895671476112E-2</v>
       </c>
     </row>
@@ -1403,20 +1456,24 @@
       <c r="B15" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="G15" s="15">
+        <f t="shared" ref="G15:K15" si="17">G6/C6-1</f>
+        <v>-1.4452512547408203E-3</v>
+      </c>
       <c r="H15" s="15">
-        <f t="shared" ref="H15:K15" si="18">H6/D6-1</f>
+        <f t="shared" si="17"/>
         <v>-5.0278206073617326E-5</v>
       </c>
       <c r="I15" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-1.2517361699244556E-2</v>
       </c>
       <c r="J15" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>-1.5047837734404879E-2</v>
       </c>
       <c r="K15" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>4.7393905370081146E-2</v>
       </c>
     </row>
@@ -1424,47 +1481,56 @@
       <c r="B16" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="G16" s="15"/>
       <c r="H16" s="15">
-        <f t="shared" ref="H16:K16" si="19">H7/D7-1</f>
+        <f t="shared" ref="H16:K16" si="18">H7/D7-1</f>
         <v>-2.0698071759824299E-2</v>
       </c>
       <c r="I16" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>-2.1613257462314017E-2</v>
       </c>
       <c r="J16" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>3.0283564283748454E-3</v>
       </c>
       <c r="K16" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0.10664483152200877</v>
       </c>
     </row>
-    <row r="17" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:52" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="G17" s="15">
+        <f t="shared" ref="G17:K17" si="19">G8/C8-1</f>
+        <v>8.7806431072906754E-2</v>
+      </c>
       <c r="H17" s="15">
-        <f t="shared" ref="H17:K17" si="20">H8/D8-1</f>
+        <f t="shared" si="19"/>
         <v>0.12150022949314798</v>
       </c>
       <c r="I17" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0.15235301460491835</v>
       </c>
       <c r="J17" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0.15219461518483257</v>
       </c>
       <c r="K17" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0.20469445094825578</v>
       </c>
     </row>
-    <row r="18" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:52" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>43</v>
+      </c>
+      <c r="G18" s="15">
+        <f>G9/C9-1</f>
+        <v>0.12178178000407414</v>
       </c>
       <c r="H18" s="15">
         <f>H9/D9-1</f>
@@ -1483,1991 +1549,4063 @@
         <v>7.5962451807565445E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="G19" s="15"/>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
-    </row>
-    <row r="20" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="K19" s="15"/>
+    </row>
+    <row r="20" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="15"/>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
-    </row>
-    <row r="21" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K20" s="15"/>
+      <c r="AD20" s="3">
+        <v>3850</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>4110</v>
+      </c>
+      <c r="AF20" s="3">
+        <v>4310</v>
+      </c>
+      <c r="AG20" s="3">
+        <v>4470</v>
+      </c>
+      <c r="AH20" s="3">
+        <v>4630</v>
+      </c>
+      <c r="AI20" s="3">
+        <v>4785</v>
+      </c>
+    </row>
+    <row r="21" spans="2:52" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="AD21" s="3">
+        <v>165</v>
+      </c>
+      <c r="AE21" s="3">
+        <v>194</v>
+      </c>
+      <c r="AF21" s="3">
+        <v>225</v>
+      </c>
+      <c r="AG21" s="3">
+        <v>261</v>
+      </c>
+      <c r="AH21" s="3">
+        <v>298</v>
+      </c>
+      <c r="AI21" s="3">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="22" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="AD22" s="3">
+        <v>34</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>48</v>
+      </c>
+      <c r="AF22" s="3">
+        <v>61</v>
+      </c>
+      <c r="AG22" s="3">
+        <v>74</v>
+      </c>
+      <c r="AH22" s="3">
+        <v>89</v>
+      </c>
+      <c r="AI22" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="B23" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="AD23" s="21">
+        <f t="shared" ref="AD23:AH23" si="20">AD22/AD21</f>
+        <v>0.20606060606060606</v>
+      </c>
+      <c r="AE23" s="21">
+        <f t="shared" si="20"/>
+        <v>0.24742268041237114</v>
+      </c>
+      <c r="AF23" s="21">
+        <f t="shared" si="20"/>
+        <v>0.27111111111111114</v>
+      </c>
+      <c r="AG23" s="21">
+        <f t="shared" si="20"/>
+        <v>0.28352490421455939</v>
+      </c>
+      <c r="AH23" s="21">
+        <f t="shared" si="20"/>
+        <v>0.29865771812080538</v>
+      </c>
+      <c r="AI23" s="21">
+        <f>AI22/AI21</f>
+        <v>0.31195335276967928</v>
+      </c>
+    </row>
+    <row r="24" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="B24" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="AD24" s="23">
+        <f>AD22/AD20</f>
+        <v>8.831168831168832E-3</v>
+      </c>
+      <c r="AE24" s="23">
+        <f t="shared" ref="AE24:AI24" si="21">AE22/AE20</f>
+        <v>1.167883211678832E-2</v>
+      </c>
+      <c r="AF24" s="23">
+        <f t="shared" si="21"/>
+        <v>1.4153132250580047E-2</v>
+      </c>
+      <c r="AG24" s="23">
+        <f t="shared" si="21"/>
+        <v>1.6554809843400447E-2</v>
+      </c>
+      <c r="AH24" s="23">
+        <f t="shared" si="21"/>
+        <v>1.9222462203023757E-2</v>
+      </c>
+      <c r="AI24" s="23">
+        <f t="shared" si="21"/>
+        <v>2.2361546499477535E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+    </row>
+    <row r="26" spans="2:52" x14ac:dyDescent="0.2">
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+    </row>
+    <row r="27" spans="2:52" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C27" s="4">
         <v>15705</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D27" s="4">
         <v>15251</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E27" s="4">
         <v>16022</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F27" s="4">
         <v>23102</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G27" s="4">
         <v>17084</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H27" s="4">
         <v>17104</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I27" s="4">
         <v>18463</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J27" s="4">
         <v>26618</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K27" s="4">
         <v>20581</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L27" s="4">
         <v>21116</v>
       </c>
-      <c r="M21" s="4">
-        <f>+I21*1.15</f>
+      <c r="M27" s="4">
+        <f>+I27*1.15</f>
         <v>21232.449999999997</v>
       </c>
-      <c r="N21" s="4">
-        <f>+J21*1.15</f>
+      <c r="N27" s="4">
+        <f>+J27*1.15</f>
         <v>30610.699999999997</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AE27" s="3">
         <v>42000</v>
       </c>
-      <c r="AF21" s="3">
+      <c r="AF27" s="3">
         <v>51733</v>
       </c>
-      <c r="AG21" s="3">
+      <c r="AG27" s="3">
         <v>60903</v>
       </c>
-      <c r="AH21" s="3">
+      <c r="AH27" s="3">
         <v>70080</v>
       </c>
-      <c r="AI21" s="3">
+      <c r="AI27" s="3">
         <v>79268</v>
       </c>
-    </row>
-    <row r="22" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="3" t="s">
+      <c r="AJ27" s="3">
+        <f>SUM(K27:N27)</f>
+        <v>93540.15</v>
+      </c>
+      <c r="AK27" s="3">
+        <f>AJ27*1.15</f>
+        <v>107571.17249999999</v>
+      </c>
+      <c r="AL27" s="3">
+        <f t="shared" ref="AL27:AZ27" si="22">AK27*1.15</f>
+        <v>123706.84837499997</v>
+      </c>
+      <c r="AM27" s="3">
+        <f t="shared" si="22"/>
+        <v>142262.87563124995</v>
+      </c>
+      <c r="AN27" s="3">
+        <f t="shared" si="22"/>
+        <v>163602.30697593742</v>
+      </c>
+      <c r="AO27" s="3">
+        <f t="shared" si="22"/>
+        <v>188142.65302232801</v>
+      </c>
+      <c r="AP27" s="3">
+        <f t="shared" si="22"/>
+        <v>216364.05097567721</v>
+      </c>
+      <c r="AQ27" s="3">
+        <f t="shared" si="22"/>
+        <v>248818.65862202877</v>
+      </c>
+      <c r="AR27" s="3">
+        <f t="shared" si="22"/>
+        <v>286141.45741533308</v>
+      </c>
+      <c r="AS27" s="3">
+        <f t="shared" si="22"/>
+        <v>329062.67602763302</v>
+      </c>
+      <c r="AT27" s="3">
+        <f t="shared" si="22"/>
+        <v>378422.07743177796</v>
+      </c>
+      <c r="AU27" s="3">
+        <f t="shared" si="22"/>
+        <v>435185.38904654462</v>
+      </c>
+      <c r="AV27" s="3">
+        <f t="shared" si="22"/>
+        <v>500463.19740352628</v>
+      </c>
+      <c r="AW27" s="3">
+        <f t="shared" si="22"/>
+        <v>575532.6770140552</v>
+      </c>
+      <c r="AX27" s="3">
+        <f t="shared" si="22"/>
+        <v>661862.57856616343</v>
+      </c>
+      <c r="AY27" s="3">
+        <f t="shared" si="22"/>
+        <v>761141.96535108786</v>
+      </c>
+      <c r="AZ27" s="3">
+        <f t="shared" si="22"/>
+        <v>875313.26015375101</v>
+      </c>
+    </row>
+    <row r="28" spans="2:52" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C28" s="4">
         <v>4036</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D28" s="4">
         <v>4089</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E28" s="4">
         <v>4557</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F28" s="4">
         <v>6226</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G28" s="4">
         <v>5633</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H28" s="4">
         <v>6081</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I28" s="4">
         <v>6895</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J28" s="4">
         <v>9129</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K28" s="4">
         <v>8547</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L28" s="4">
         <v>9288</v>
       </c>
-      <c r="M22" s="4">
-        <f t="shared" ref="M22:N22" si="21">+I22*1.4</f>
+      <c r="M28" s="4">
+        <f t="shared" ref="M28:N28" si="23">+I28*1.4</f>
         <v>9653</v>
       </c>
-      <c r="N22" s="4">
-        <f t="shared" si="21"/>
+      <c r="N28" s="4">
+        <f t="shared" si="23"/>
         <v>12780.599999999999</v>
       </c>
-      <c r="Z22" s="21"/>
-      <c r="AA22" s="21"/>
-      <c r="AB22" s="21"/>
-      <c r="AE22" s="3">
+      <c r="Z28" s="20"/>
+      <c r="AA28" s="20"/>
+      <c r="AB28" s="20"/>
+      <c r="AE28" s="3">
         <v>6077</v>
       </c>
-      <c r="AF22" s="3">
+      <c r="AF28" s="3">
         <v>9360</v>
       </c>
-      <c r="AG22" s="3">
+      <c r="AG28" s="3">
         <v>13549</v>
       </c>
-      <c r="AH22" s="3">
+      <c r="AH28" s="3">
         <v>18908</v>
       </c>
-      <c r="AI22" s="3">
+      <c r="AI28" s="3">
         <v>27738</v>
       </c>
-    </row>
-    <row r="23" spans="2:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="5" t="s">
+      <c r="AJ28" s="3">
+        <f>SUM(K28:N28)</f>
+        <v>40268.6</v>
+      </c>
+      <c r="AK28" s="3">
+        <f>AJ28*1.4</f>
+        <v>56376.039999999994</v>
+      </c>
+      <c r="AL28" s="3">
+        <f t="shared" ref="AL28:AZ28" si="24">AK28*1.4</f>
+        <v>78926.455999999991</v>
+      </c>
+      <c r="AM28" s="3">
+        <f t="shared" si="24"/>
+        <v>110497.03839999998</v>
+      </c>
+      <c r="AN28" s="3">
+        <f t="shared" si="24"/>
+        <v>154695.85375999997</v>
+      </c>
+      <c r="AO28" s="3">
+        <f t="shared" si="24"/>
+        <v>216574.19526399995</v>
+      </c>
+      <c r="AP28" s="3">
+        <f t="shared" si="24"/>
+        <v>303203.87336959993</v>
+      </c>
+      <c r="AQ28" s="3">
+        <f t="shared" si="24"/>
+        <v>424485.42271743988</v>
+      </c>
+      <c r="AR28" s="3">
+        <f t="shared" si="24"/>
+        <v>594279.5918044158</v>
+      </c>
+      <c r="AS28" s="3">
+        <f t="shared" si="24"/>
+        <v>831991.42852618208</v>
+      </c>
+      <c r="AT28" s="3">
+        <f t="shared" si="24"/>
+        <v>1164787.9999366549</v>
+      </c>
+      <c r="AU28" s="3">
+        <f t="shared" si="24"/>
+        <v>1630703.1999113169</v>
+      </c>
+      <c r="AV28" s="3">
+        <f t="shared" si="24"/>
+        <v>2282984.4798758435</v>
+      </c>
+      <c r="AW28" s="3">
+        <f t="shared" si="24"/>
+        <v>3196178.2718261806</v>
+      </c>
+      <c r="AX28" s="3">
+        <f t="shared" si="24"/>
+        <v>4474649.5805566525</v>
+      </c>
+      <c r="AY28" s="3">
+        <f t="shared" si="24"/>
+        <v>6264509.4127793135</v>
+      </c>
+      <c r="AZ28" s="3">
+        <f t="shared" si="24"/>
+        <v>8770313.1778910384</v>
+      </c>
+    </row>
+    <row r="29" spans="2:52" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="6">
-        <f t="shared" ref="C23:J23" si="22">+C22+C21</f>
+      <c r="C29" s="6">
+        <f t="shared" ref="C29:J29" si="25">+C28+C27</f>
         <v>19741</v>
       </c>
-      <c r="D23" s="6">
-        <f t="shared" si="22"/>
+      <c r="D29" s="6">
+        <f t="shared" si="25"/>
         <v>19340</v>
       </c>
-      <c r="E23" s="6">
-        <f t="shared" si="22"/>
+      <c r="E29" s="6">
+        <f t="shared" si="25"/>
         <v>20579</v>
       </c>
-      <c r="F23" s="6">
-        <f t="shared" si="22"/>
+      <c r="F29" s="6">
+        <f t="shared" si="25"/>
         <v>29328</v>
       </c>
-      <c r="G23" s="6">
-        <f t="shared" si="22"/>
+      <c r="G29" s="6">
+        <f t="shared" si="25"/>
         <v>22717</v>
       </c>
-      <c r="H23" s="6">
-        <f t="shared" si="22"/>
+      <c r="H29" s="6">
+        <f t="shared" si="25"/>
         <v>23185</v>
       </c>
-      <c r="I23" s="6">
-        <f t="shared" si="22"/>
+      <c r="I29" s="6">
+        <f t="shared" si="25"/>
         <v>25358</v>
       </c>
-      <c r="J23" s="6">
-        <f t="shared" si="22"/>
+      <c r="J29" s="6">
+        <f t="shared" si="25"/>
         <v>35747</v>
       </c>
-      <c r="K23" s="6">
-        <f t="shared" ref="K23:N23" si="23">+K22+K21</f>
+      <c r="K29" s="6">
+        <f t="shared" ref="K29:N29" si="26">+K28+K27</f>
         <v>29128</v>
       </c>
-      <c r="L23" s="6">
-        <f t="shared" si="23"/>
+      <c r="L29" s="6">
+        <f t="shared" si="26"/>
         <v>30404</v>
       </c>
-      <c r="M23" s="6">
-        <f t="shared" si="23"/>
+      <c r="M29" s="6">
+        <f t="shared" si="26"/>
         <v>30885.449999999997</v>
       </c>
-      <c r="N23" s="6">
-        <f t="shared" si="23"/>
+      <c r="N29" s="6">
+        <f t="shared" si="26"/>
         <v>43391.299999999996</v>
       </c>
-      <c r="P23" s="5">
+      <c r="P29" s="5">
         <v>15.746</v>
       </c>
-      <c r="Q23" s="5">
+      <c r="Q29" s="5">
         <v>147.78700000000001</v>
       </c>
-      <c r="R23" s="5">
+      <c r="R29" s="5">
         <v>609.81899999999996</v>
       </c>
-      <c r="S23" s="5">
+      <c r="S29" s="5">
         <v>1639.8389999999999</v>
       </c>
-      <c r="T23" s="5">
+      <c r="T29" s="5">
         <v>2761.9830000000002</v>
       </c>
-      <c r="U23" s="5">
+      <c r="U29" s="5">
         <v>3122.433</v>
       </c>
-      <c r="V23" s="5">
+      <c r="V29" s="5">
         <v>3932.9360000000001</v>
       </c>
-      <c r="W23" s="5">
+      <c r="W29" s="5">
         <v>5263.6989999999996</v>
       </c>
-      <c r="X23" s="5">
+      <c r="X29" s="5">
         <v>6921</v>
       </c>
-      <c r="Y23" s="5">
+      <c r="Y29" s="5">
         <v>8490</v>
       </c>
-      <c r="Z23" s="19">
+      <c r="Z29" s="18">
         <v>10711</v>
       </c>
-      <c r="AA23" s="19">
+      <c r="AA29" s="18">
         <v>14835</v>
       </c>
-      <c r="AB23" s="19">
+      <c r="AB29" s="18">
         <v>19166</v>
       </c>
-      <c r="AC23" s="5">
+      <c r="AC29" s="5">
         <v>24509</v>
       </c>
-      <c r="AD23" s="5">
+      <c r="AD29" s="5">
         <v>34204</v>
       </c>
-      <c r="AE23" s="5">
-        <f>+AE22+AE21</f>
+      <c r="AE29" s="5">
+        <f>+AE28+AE27</f>
         <v>48077</v>
       </c>
-      <c r="AF23" s="5">
-        <f>+AF22+AF21</f>
+      <c r="AF29" s="5">
+        <f>+AF28+AF27</f>
         <v>61093</v>
       </c>
-      <c r="AG23" s="5">
-        <f>+AG22+AG21</f>
+      <c r="AG29" s="5">
+        <f>+AG28+AG27</f>
         <v>74452</v>
       </c>
-      <c r="AH23" s="5">
-        <f>+AH22+AH21</f>
+      <c r="AH29" s="5">
+        <f>+AH28+AH27</f>
         <v>88988</v>
       </c>
-      <c r="AI23" s="5">
-        <f>+AI22+AI21</f>
+      <c r="AI29" s="5">
+        <f>+AI28+AI27</f>
         <v>107006</v>
       </c>
-    </row>
-    <row r="24" spans="2:35" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="7" t="s">
+      <c r="AJ29" s="5">
+        <f>+AJ28+AJ27</f>
+        <v>133808.75</v>
+      </c>
+      <c r="AK29" s="5">
+        <f t="shared" ref="AK29:AZ29" si="27">+AK28+AK27</f>
+        <v>163947.21249999997</v>
+      </c>
+      <c r="AL29" s="5">
+        <f t="shared" si="27"/>
+        <v>202633.30437499995</v>
+      </c>
+      <c r="AM29" s="5">
+        <f t="shared" si="27"/>
+        <v>252759.91403124994</v>
+      </c>
+      <c r="AN29" s="5">
+        <f t="shared" si="27"/>
+        <v>318298.16073593742</v>
+      </c>
+      <c r="AO29" s="5">
+        <f t="shared" si="27"/>
+        <v>404716.84828632796</v>
+      </c>
+      <c r="AP29" s="5">
+        <f t="shared" si="27"/>
+        <v>519567.92434527713</v>
+      </c>
+      <c r="AQ29" s="5">
+        <f t="shared" si="27"/>
+        <v>673304.08133946871</v>
+      </c>
+      <c r="AR29" s="5">
+        <f t="shared" si="27"/>
+        <v>880421.04921974894</v>
+      </c>
+      <c r="AS29" s="5">
+        <f t="shared" si="27"/>
+        <v>1161054.104553815</v>
+      </c>
+      <c r="AT29" s="5">
+        <f t="shared" si="27"/>
+        <v>1543210.0773684329</v>
+      </c>
+      <c r="AU29" s="5">
+        <f t="shared" si="27"/>
+        <v>2065888.5889578615</v>
+      </c>
+      <c r="AV29" s="5">
+        <f t="shared" si="27"/>
+        <v>2783447.6772793699</v>
+      </c>
+      <c r="AW29" s="5">
+        <f t="shared" si="27"/>
+        <v>3771710.9488402358</v>
+      </c>
+      <c r="AX29" s="5">
+        <f t="shared" si="27"/>
+        <v>5136512.1591228163</v>
+      </c>
+      <c r="AY29" s="5">
+        <f t="shared" si="27"/>
+        <v>7025651.3781304015</v>
+      </c>
+      <c r="AZ29" s="5">
+        <f t="shared" si="27"/>
+        <v>9645626.4380447902</v>
+      </c>
+    </row>
+    <row r="30" spans="2:52" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C30" s="8">
         <v>14055</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D30" s="8">
         <v>13399</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E30" s="8">
         <v>14627</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F30" s="8">
         <v>20671</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G30" s="8">
         <v>15395</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H30" s="8">
         <v>15160</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I30" s="8">
         <v>16755</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J30" s="8">
         <v>24341</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K30" s="8">
         <v>18866</v>
       </c>
-      <c r="L24" s="8">
+      <c r="L30" s="8">
         <v>19180</v>
       </c>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="P24" s="7">
-        <f>+P23-3.459</f>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="P30" s="7">
+        <f>+P29-3.459</f>
         <v>12.287000000000001</v>
       </c>
-      <c r="Q24" s="7">
-        <f>+Q23-28.818</f>
+      <c r="Q30" s="7">
+        <f>+Q29-28.818</f>
         <v>118.96900000000001</v>
       </c>
-      <c r="R24" s="7">
-        <f>+R23-133.664</f>
+      <c r="R30" s="7">
+        <f>+R29-133.664</f>
         <v>476.15499999999997</v>
       </c>
-      <c r="S24" s="7">
-        <f>+S23-290.645</f>
+      <c r="S30" s="7">
+        <f>+S29-290.645</f>
         <v>1349.194</v>
       </c>
-      <c r="T24" s="7">
-        <f>+T23-655.777</f>
+      <c r="T30" s="7">
+        <f>+T29-655.777</f>
         <v>2106.2060000000001</v>
       </c>
-      <c r="U24" s="7">
+      <c r="U30" s="7">
         <v>2323.875</v>
       </c>
-      <c r="V24" s="7">
+      <c r="V30" s="7">
         <v>2940.3180000000002</v>
       </c>
-      <c r="W24" s="7">
+      <c r="W30" s="7">
         <v>4006.5309999999999</v>
       </c>
-      <c r="X24" s="7">
+      <c r="X30" s="7">
         <v>5319</v>
       </c>
-      <c r="Y24" s="7">
+      <c r="Y30" s="7">
         <v>6451</v>
       </c>
-      <c r="Z24" s="20">
+      <c r="Z30" s="19">
         <v>8255</v>
       </c>
-      <c r="AA24" s="20">
+      <c r="AA30" s="19">
         <v>11482</v>
       </c>
-      <c r="AB24" s="20">
+      <c r="AB30" s="19">
         <v>14896</v>
       </c>
-      <c r="AC24" s="7">
+      <c r="AC30" s="7">
         <v>18978</v>
       </c>
-      <c r="AD24" s="7">
+      <c r="AD30" s="7">
         <v>26561</v>
       </c>
-      <c r="AE24" s="7">
+      <c r="AE30" s="7">
         <v>37288</v>
       </c>
-      <c r="AF24" s="7">
+      <c r="AF30" s="7">
         <v>45971</v>
       </c>
-      <c r="AG24" s="7">
+      <c r="AG30" s="7">
         <v>54181</v>
       </c>
-      <c r="AH24" s="7">
+      <c r="AH30" s="7">
         <v>62752</v>
       </c>
-      <c r="AI24" s="7">
+      <c r="AI30" s="7">
         <v>71651</v>
       </c>
     </row>
-    <row r="25" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="3" t="s">
+    <row r="31" spans="2:52" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C31" s="4">
         <v>2317</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D31" s="4">
         <v>2382</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E31" s="4">
         <v>2643</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F31" s="4">
         <v>3424</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G31" s="4">
         <v>2759</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H31" s="4">
         <v>3230</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I31" s="4">
         <v>3230</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J31" s="4">
         <v>4546</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K31" s="4">
         <v>3687</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L31" s="4">
         <v>3878</v>
       </c>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="Z25" s="18"/>
-      <c r="AA25" s="18"/>
-      <c r="AB25" s="21">
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="Z31" s="20"/>
+      <c r="AA31" s="20"/>
+      <c r="AB31" s="20">
         <v>1658</v>
       </c>
-      <c r="AC25" s="3">
+      <c r="AC31" s="3">
         <v>2052</v>
       </c>
-      <c r="AD25" s="3">
+      <c r="AD31" s="3">
         <v>2898</v>
       </c>
-      <c r="AE25" s="3">
+      <c r="AE31" s="3">
         <v>4576</v>
       </c>
-      <c r="AF25" s="3">
+      <c r="AF31" s="3">
         <v>6419</v>
       </c>
-      <c r="AG25" s="3">
+      <c r="AG31" s="3">
         <v>8585</v>
       </c>
-      <c r="AH25" s="3">
+      <c r="AH31" s="3">
         <v>10766</v>
       </c>
-      <c r="AI25" s="3">
+      <c r="AI31" s="3">
         <v>13410</v>
       </c>
     </row>
-    <row r="26" spans="2:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="5" t="s">
+    <row r="32" spans="2:52" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="6">
-        <f t="shared" ref="C26:J26" si="24">C23-C24-C25</f>
+      <c r="C32" s="6">
+        <f t="shared" ref="C32:J32" si="28">C29-C30-C31</f>
         <v>3369</v>
       </c>
-      <c r="D26" s="6">
-        <f t="shared" si="24"/>
+      <c r="D32" s="6">
+        <f t="shared" si="28"/>
         <v>3559</v>
       </c>
-      <c r="E26" s="6">
-        <f t="shared" si="24"/>
+      <c r="E32" s="6">
+        <f t="shared" si="28"/>
         <v>3309</v>
       </c>
-      <c r="F26" s="6">
-        <f t="shared" si="24"/>
+      <c r="F32" s="6">
+        <f t="shared" si="28"/>
         <v>5233</v>
       </c>
-      <c r="G26" s="6">
-        <f t="shared" si="24"/>
+      <c r="G32" s="6">
+        <f t="shared" si="28"/>
         <v>4563</v>
       </c>
-      <c r="H26" s="6">
-        <f t="shared" si="24"/>
+      <c r="H32" s="6">
+        <f t="shared" si="28"/>
         <v>4795</v>
       </c>
-      <c r="I26" s="6">
-        <f t="shared" si="24"/>
+      <c r="I32" s="6">
+        <f t="shared" si="28"/>
         <v>5373</v>
       </c>
-      <c r="J26" s="6">
-        <f t="shared" si="24"/>
+      <c r="J32" s="6">
+        <f t="shared" si="28"/>
         <v>6860</v>
       </c>
-      <c r="K26" s="6">
-        <f t="shared" ref="K26:L26" si="25">K23-K24-K25</f>
+      <c r="K32" s="6">
+        <f t="shared" ref="K32:L32" si="29">K29-K30-K31</f>
         <v>6575</v>
       </c>
-      <c r="L26" s="6">
-        <f t="shared" si="25"/>
+      <c r="L32" s="6">
+        <f t="shared" si="29"/>
         <v>7346</v>
       </c>
-      <c r="M26" s="6">
-        <f t="shared" ref="M26:N26" si="26">+M23*0.23</f>
+      <c r="M32" s="6">
+        <f t="shared" ref="M32:N32" si="30">+M29*0.23</f>
         <v>7103.6534999999994</v>
       </c>
-      <c r="N26" s="6">
-        <f t="shared" si="26"/>
+      <c r="N32" s="6">
+        <f t="shared" si="30"/>
         <v>9979.9989999999998</v>
       </c>
-      <c r="P26" s="5">
-        <f t="shared" ref="P26:Y26" si="27">+P23-P24</f>
+      <c r="P32" s="5">
+        <f t="shared" ref="P32:Y32" si="31">+P29-P30</f>
         <v>3.4589999999999996</v>
       </c>
-      <c r="Q26" s="5">
-        <f t="shared" si="27"/>
+      <c r="Q32" s="5">
+        <f t="shared" si="31"/>
         <v>28.817999999999998</v>
       </c>
-      <c r="R26" s="5">
-        <f t="shared" si="27"/>
+      <c r="R32" s="5">
+        <f t="shared" si="31"/>
         <v>133.66399999999999</v>
       </c>
-      <c r="S26" s="5">
-        <f t="shared" si="27"/>
+      <c r="S32" s="5">
+        <f t="shared" si="31"/>
         <v>290.64499999999998</v>
       </c>
-      <c r="T26" s="5">
-        <f t="shared" si="27"/>
+      <c r="T32" s="5">
+        <f t="shared" si="31"/>
         <v>655.77700000000004</v>
       </c>
-      <c r="U26" s="5">
-        <f t="shared" si="27"/>
+      <c r="U32" s="5">
+        <f t="shared" si="31"/>
         <v>798.55799999999999</v>
       </c>
-      <c r="V26" s="5">
-        <f t="shared" si="27"/>
+      <c r="V32" s="5">
+        <f t="shared" si="31"/>
         <v>992.61799999999994</v>
       </c>
-      <c r="W26" s="5">
-        <f t="shared" si="27"/>
+      <c r="W32" s="5">
+        <f t="shared" si="31"/>
         <v>1257.1679999999997</v>
       </c>
-      <c r="X26" s="5">
-        <f t="shared" si="27"/>
+      <c r="X32" s="5">
+        <f t="shared" si="31"/>
         <v>1602</v>
       </c>
-      <c r="Y26" s="5">
-        <f t="shared" si="27"/>
+      <c r="Y32" s="5">
+        <f t="shared" si="31"/>
         <v>2039</v>
       </c>
-      <c r="Z26" s="6">
-        <f t="shared" ref="Z26:AI26" si="28">Z23-Z24-Z25</f>
+      <c r="Z32" s="6">
+        <f t="shared" ref="Z32:AI32" si="32">Z29-Z30-Z31</f>
         <v>2456</v>
       </c>
-      <c r="AA26" s="6">
-        <f t="shared" si="28"/>
+      <c r="AA32" s="6">
+        <f t="shared" si="32"/>
         <v>3353</v>
       </c>
-      <c r="AB26" s="6">
-        <f>AB23-AB24-AB25</f>
+      <c r="AB32" s="6">
+        <f>AB29-AB30-AB31</f>
         <v>2612</v>
       </c>
-      <c r="AC26" s="6">
-        <f t="shared" si="28"/>
+      <c r="AC32" s="6">
+        <f t="shared" si="32"/>
         <v>3479</v>
       </c>
-      <c r="AD26" s="6">
-        <f>AD23-AD24-AD25</f>
+      <c r="AD32" s="6">
+        <f>AD29-AD30-AD31</f>
         <v>4745</v>
       </c>
-      <c r="AE26" s="6">
-        <f t="shared" si="28"/>
+      <c r="AE32" s="6">
+        <f t="shared" si="32"/>
         <v>6213</v>
       </c>
-      <c r="AF26" s="6">
-        <f t="shared" si="28"/>
+      <c r="AF32" s="6">
+        <f t="shared" si="32"/>
         <v>8703</v>
       </c>
-      <c r="AG26" s="6">
-        <f t="shared" si="28"/>
+      <c r="AG32" s="6">
+        <f t="shared" si="32"/>
         <v>11686</v>
       </c>
-      <c r="AH26" s="6">
-        <f t="shared" si="28"/>
+      <c r="AH32" s="6">
+        <f t="shared" si="32"/>
         <v>15470</v>
       </c>
-      <c r="AI26" s="6">
-        <f t="shared" si="28"/>
+      <c r="AI32" s="6">
+        <f t="shared" si="32"/>
         <v>21945</v>
       </c>
-    </row>
-    <row r="27" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="3" t="s">
+      <c r="AJ32" s="5">
+        <f>AJ29*0.23</f>
+        <v>30776.012500000001</v>
+      </c>
+      <c r="AK32" s="5">
+        <f t="shared" ref="AK32:AZ32" si="33">AK29*0.23</f>
+        <v>37707.858874999991</v>
+      </c>
+      <c r="AL32" s="5">
+        <f t="shared" si="33"/>
+        <v>46605.660006249993</v>
+      </c>
+      <c r="AM32" s="5">
+        <f t="shared" si="33"/>
+        <v>58134.78022718749</v>
+      </c>
+      <c r="AN32" s="5">
+        <f t="shared" si="33"/>
+        <v>73208.576969265603</v>
+      </c>
+      <c r="AO32" s="5">
+        <f t="shared" si="33"/>
+        <v>93084.875105855434</v>
+      </c>
+      <c r="AP32" s="5">
+        <f t="shared" si="33"/>
+        <v>119500.62259941375</v>
+      </c>
+      <c r="AQ32" s="5">
+        <f t="shared" si="33"/>
+        <v>154859.93870807783</v>
+      </c>
+      <c r="AR32" s="5">
+        <f t="shared" si="33"/>
+        <v>202496.84132054227</v>
+      </c>
+      <c r="AS32" s="5">
+        <f t="shared" si="33"/>
+        <v>267042.44404737744</v>
+      </c>
+      <c r="AT32" s="5">
+        <f t="shared" si="33"/>
+        <v>354938.31779473956</v>
+      </c>
+      <c r="AU32" s="5">
+        <f t="shared" si="33"/>
+        <v>475154.37546030816</v>
+      </c>
+      <c r="AV32" s="5">
+        <f t="shared" si="33"/>
+        <v>640192.96577425511</v>
+      </c>
+      <c r="AW32" s="5">
+        <f t="shared" si="33"/>
+        <v>867493.51823325432</v>
+      </c>
+      <c r="AX32" s="5">
+        <f t="shared" si="33"/>
+        <v>1181397.7965982477</v>
+      </c>
+      <c r="AY32" s="5">
+        <f t="shared" si="33"/>
+        <v>1615899.8169699924</v>
+      </c>
+      <c r="AZ32" s="5">
+        <f t="shared" si="33"/>
+        <v>2218494.0807503019</v>
+      </c>
+    </row>
+    <row r="33" spans="2:280" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C33" s="4">
         <v>870</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D33" s="4">
         <v>943</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E33" s="4">
         <v>993</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F33" s="4">
         <v>1526</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G33" s="4">
         <v>1083</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H33" s="4">
         <v>1150</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I33" s="4">
         <v>1264</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J33" s="4">
         <v>1755</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K33" s="4">
         <v>1436</v>
       </c>
-      <c r="L27" s="4">
+      <c r="L33" s="4">
         <v>1546</v>
       </c>
-      <c r="M27" s="4">
-        <f t="shared" ref="M27:M28" si="29">+I27*1.2</f>
+      <c r="M33" s="4">
+        <f t="shared" ref="M33:M34" si="34">+I33*1.2</f>
         <v>1516.8</v>
       </c>
-      <c r="N27" s="4">
-        <f t="shared" ref="N27:N28" si="30">+J27*1.2</f>
+      <c r="N33" s="4">
+        <f t="shared" ref="N33:N34" si="35">+J33*1.2</f>
         <v>2106</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="Z33" s="3">
         <v>263</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AA33" s="3">
         <v>344</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AB33" s="3">
         <v>482</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AC33" s="3">
         <v>680</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AD33" s="3">
         <v>1029</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AE33" s="3">
         <v>1630</v>
       </c>
-      <c r="AF27" s="3">
+      <c r="AF33" s="3">
         <v>2408</v>
       </c>
-      <c r="AG27" s="3">
+      <c r="AG33" s="3">
         <v>3133</v>
       </c>
-      <c r="AH27" s="3">
+      <c r="AH33" s="3">
         <v>4332</v>
       </c>
-      <c r="AI27" s="3">
+      <c r="AI33" s="3">
         <v>5254</v>
       </c>
-    </row>
-    <row r="28" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="3" t="s">
+      <c r="AJ33" s="3">
+        <f>SUM(K33:N33)</f>
+        <v>6604.8</v>
+      </c>
+      <c r="AK33" s="3">
+        <f>AJ33*1.2</f>
+        <v>7925.76</v>
+      </c>
+      <c r="AL33" s="3">
+        <f t="shared" ref="AL33:AZ33" si="36">AK33*1.2</f>
+        <v>9510.9120000000003</v>
+      </c>
+      <c r="AM33" s="3">
+        <f t="shared" si="36"/>
+        <v>11413.0944</v>
+      </c>
+      <c r="AN33" s="3">
+        <f t="shared" si="36"/>
+        <v>13695.71328</v>
+      </c>
+      <c r="AO33" s="3">
+        <f t="shared" si="36"/>
+        <v>16434.855936</v>
+      </c>
+      <c r="AP33" s="3">
+        <f t="shared" si="36"/>
+        <v>19721.827123200001</v>
+      </c>
+      <c r="AQ33" s="3">
+        <f t="shared" si="36"/>
+        <v>23666.192547840001</v>
+      </c>
+      <c r="AR33" s="3">
+        <f t="shared" si="36"/>
+        <v>28399.431057408001</v>
+      </c>
+      <c r="AS33" s="3">
+        <f t="shared" si="36"/>
+        <v>34079.317268889601</v>
+      </c>
+      <c r="AT33" s="3">
+        <f t="shared" si="36"/>
+        <v>40895.180722667523</v>
+      </c>
+      <c r="AU33" s="3">
+        <f t="shared" si="36"/>
+        <v>49074.216867201023</v>
+      </c>
+      <c r="AV33" s="3">
+        <f t="shared" si="36"/>
+        <v>58889.060240641229</v>
+      </c>
+      <c r="AW33" s="3">
+        <f t="shared" si="36"/>
+        <v>70666.872288769475</v>
+      </c>
+      <c r="AX33" s="3">
+        <f t="shared" si="36"/>
+        <v>84800.246746523364</v>
+      </c>
+      <c r="AY33" s="3">
+        <f t="shared" si="36"/>
+        <v>101760.29609582803</v>
+      </c>
+      <c r="AZ33" s="3">
+        <f t="shared" si="36"/>
+        <v>122112.35531499363</v>
+      </c>
+    </row>
+    <row r="34" spans="2:280" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C34" s="4">
         <v>1991</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D34" s="4">
         <v>2226</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E34" s="4">
         <v>2423</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F34" s="4">
         <v>2635</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G34" s="4">
         <v>2754</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H34" s="4">
         <v>3020</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I34" s="4">
         <v>3197</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J34" s="4">
         <v>3571</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K34" s="4">
         <v>3526</v>
       </c>
-      <c r="L28" s="4">
+      <c r="L34" s="4">
         <v>3880</v>
       </c>
-      <c r="M28" s="4">
-        <f t="shared" si="29"/>
+      <c r="M34" s="4">
+        <f t="shared" si="34"/>
         <v>3836.3999999999996</v>
       </c>
-      <c r="N28" s="4">
-        <f t="shared" si="30"/>
+      <c r="N34" s="4">
+        <f t="shared" si="35"/>
         <v>4285.2</v>
       </c>
-      <c r="Z28" s="3">
+      <c r="Z34" s="3">
         <v>662</v>
       </c>
-      <c r="AA28" s="3">
+      <c r="AA34" s="3">
         <v>818</v>
       </c>
-      <c r="AB28" s="3">
+      <c r="AB34" s="3">
         <v>1033</v>
       </c>
-      <c r="AC28" s="3">
+      <c r="AC34" s="3">
         <v>1240</v>
       </c>
-      <c r="AD28" s="3">
+      <c r="AD34" s="3">
         <v>1734</v>
       </c>
-      <c r="AE28" s="3">
+      <c r="AE34" s="3">
         <v>2909</v>
       </c>
-      <c r="AF28" s="3">
+      <c r="AF34" s="3">
         <v>4564</v>
       </c>
-      <c r="AG28" s="3">
+      <c r="AG34" s="3">
         <v>6565</v>
       </c>
-      <c r="AH28" s="3">
+      <c r="AH34" s="3">
         <v>9275</v>
       </c>
-      <c r="AI28" s="3">
+      <c r="AI34" s="3">
         <v>12540</v>
       </c>
-    </row>
-    <row r="29" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="3" t="s">
+      <c r="AJ34" s="3">
+        <f>SUM(K34:N34)</f>
+        <v>15527.599999999999</v>
+      </c>
+      <c r="AK34" s="3">
+        <f>AJ34*1.2</f>
+        <v>18633.12</v>
+      </c>
+      <c r="AL34" s="3">
+        <f t="shared" ref="AL34:AZ34" si="37">AK34*1.2</f>
+        <v>22359.743999999999</v>
+      </c>
+      <c r="AM34" s="3">
+        <f t="shared" si="37"/>
+        <v>26831.692799999997</v>
+      </c>
+      <c r="AN34" s="3">
+        <f t="shared" si="37"/>
+        <v>32198.031359999994</v>
+      </c>
+      <c r="AO34" s="3">
+        <f t="shared" si="37"/>
+        <v>38637.637631999991</v>
+      </c>
+      <c r="AP34" s="3">
+        <f t="shared" si="37"/>
+        <v>46365.165158399985</v>
+      </c>
+      <c r="AQ34" s="3">
+        <f t="shared" si="37"/>
+        <v>55638.19819007998</v>
+      </c>
+      <c r="AR34" s="3">
+        <f t="shared" si="37"/>
+        <v>66765.837828095973</v>
+      </c>
+      <c r="AS34" s="3">
+        <f t="shared" si="37"/>
+        <v>80119.005393715168</v>
+      </c>
+      <c r="AT34" s="3">
+        <f t="shared" si="37"/>
+        <v>96142.806472458193</v>
+      </c>
+      <c r="AU34" s="3">
+        <f t="shared" si="37"/>
+        <v>115371.36776694983</v>
+      </c>
+      <c r="AV34" s="3">
+        <f t="shared" si="37"/>
+        <v>138445.64132033978</v>
+      </c>
+      <c r="AW34" s="3">
+        <f t="shared" si="37"/>
+        <v>166134.76958440774</v>
+      </c>
+      <c r="AX34" s="3">
+        <f t="shared" si="37"/>
+        <v>199361.72350128929</v>
+      </c>
+      <c r="AY34" s="3">
+        <f t="shared" si="37"/>
+        <v>239234.06820154714</v>
+      </c>
+      <c r="AZ34" s="3">
+        <f t="shared" si="37"/>
+        <v>287080.88184185658</v>
+      </c>
+    </row>
+    <row r="35" spans="2:280" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C35" s="4">
         <v>327</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D35" s="4">
         <f>377+28</f>
         <v>405</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E35" s="4">
         <f>406+31</f>
         <v>437</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F35" s="4">
         <f>442+39</f>
         <v>481</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G35" s="4">
         <f>427+44</f>
         <v>471</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H35" s="4">
         <f>467+48</f>
         <v>515</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I35" s="4">
         <f>463+43</f>
         <v>506</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J35" s="4">
         <f>390+36</f>
         <v>426</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K35" s="4">
         <f>497+45</f>
         <v>542</v>
       </c>
-      <c r="L29" s="4">
+      <c r="L35" s="4">
         <v>580</v>
       </c>
-      <c r="M29" s="4">
-        <f t="shared" ref="M29:N29" si="31">+I29*1.1</f>
+      <c r="M35" s="4">
+        <f t="shared" ref="M35:N35" si="38">+I35*1.1</f>
         <v>556.6</v>
       </c>
-      <c r="N29" s="4">
-        <f t="shared" si="31"/>
+      <c r="N35" s="4">
+        <f t="shared" si="38"/>
         <v>468.6</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z35" s="3">
         <f>195+10</f>
         <v>205</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AA35" s="3">
         <f>235+9</f>
         <v>244</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AB35" s="3">
         <f>279-24</f>
         <v>255</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AC35" s="3">
         <f>328+102</f>
         <v>430</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AD35" s="3">
         <f>470+106</f>
         <v>576</v>
       </c>
-      <c r="AE29" s="3">
+      <c r="AE35" s="3">
         <f>658+154</f>
         <v>812</v>
       </c>
-      <c r="AF29" s="3">
+      <c r="AF35" s="3">
         <f>896+159</f>
         <v>1055</v>
       </c>
-      <c r="AG29" s="3">
+      <c r="AG35" s="3">
         <f>1129+114</f>
         <v>1243</v>
       </c>
-      <c r="AH29" s="3">
+      <c r="AH35" s="3">
         <f>1552+133</f>
         <v>1685</v>
       </c>
-      <c r="AI29" s="3">
+      <c r="AI35" s="3">
         <f>1747+171</f>
         <v>1918</v>
       </c>
-    </row>
-    <row r="30" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="3" t="s">
+      <c r="AJ35" s="3">
+        <f>SUM(K35:N35)</f>
+        <v>2147.1999999999998</v>
+      </c>
+      <c r="AK35" s="3">
+        <f>AJ35*1.1</f>
+        <v>2361.92</v>
+      </c>
+      <c r="AL35" s="3">
+        <f t="shared" ref="AL35:AZ35" si="39">AK35*1.1</f>
+        <v>2598.1120000000001</v>
+      </c>
+      <c r="AM35" s="3">
+        <f t="shared" si="39"/>
+        <v>2857.9232000000002</v>
+      </c>
+      <c r="AN35" s="3">
+        <f t="shared" si="39"/>
+        <v>3143.7155200000007</v>
+      </c>
+      <c r="AO35" s="3">
+        <f t="shared" si="39"/>
+        <v>3458.0870720000012</v>
+      </c>
+      <c r="AP35" s="3">
+        <f t="shared" si="39"/>
+        <v>3803.8957792000015</v>
+      </c>
+      <c r="AQ35" s="3">
+        <f t="shared" si="39"/>
+        <v>4184.2853571200021</v>
+      </c>
+      <c r="AR35" s="3">
+        <f t="shared" si="39"/>
+        <v>4602.7138928320028</v>
+      </c>
+      <c r="AS35" s="3">
+        <f t="shared" si="39"/>
+        <v>5062.9852821152035</v>
+      </c>
+      <c r="AT35" s="3">
+        <f t="shared" si="39"/>
+        <v>5569.2838103267241</v>
+      </c>
+      <c r="AU35" s="3">
+        <f t="shared" si="39"/>
+        <v>6126.2121913593974</v>
+      </c>
+      <c r="AV35" s="3">
+        <f t="shared" si="39"/>
+        <v>6738.8334104953374</v>
+      </c>
+      <c r="AW35" s="3">
+        <f t="shared" si="39"/>
+        <v>7412.7167515448718</v>
+      </c>
+      <c r="AX35" s="3">
+        <f t="shared" si="39"/>
+        <v>8153.9884266993595</v>
+      </c>
+      <c r="AY35" s="3">
+        <f t="shared" si="39"/>
+        <v>8969.3872693692956</v>
+      </c>
+      <c r="AZ35" s="3">
+        <f t="shared" si="39"/>
+        <v>9866.3259963062264</v>
+      </c>
+    </row>
+    <row r="36" spans="2:280" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="4">
-        <f t="shared" ref="C30:J30" si="32">SUM(C27:C29)</f>
+      <c r="C36" s="4">
+        <f t="shared" ref="C36:J36" si="40">SUM(C33:C35)</f>
         <v>3188</v>
       </c>
-      <c r="D30" s="4">
-        <f t="shared" si="32"/>
+      <c r="D36" s="4">
+        <f t="shared" si="40"/>
         <v>3574</v>
       </c>
-      <c r="E30" s="4">
-        <f t="shared" si="32"/>
+      <c r="E36" s="4">
+        <f t="shared" si="40"/>
         <v>3853</v>
       </c>
-      <c r="F30" s="4">
-        <f t="shared" si="32"/>
+      <c r="F36" s="4">
+        <f t="shared" si="40"/>
         <v>4642</v>
       </c>
-      <c r="G30" s="4">
-        <f t="shared" si="32"/>
+      <c r="G36" s="4">
+        <f t="shared" si="40"/>
         <v>4308</v>
       </c>
-      <c r="H30" s="4">
-        <f t="shared" si="32"/>
+      <c r="H36" s="4">
+        <f t="shared" si="40"/>
         <v>4685</v>
       </c>
-      <c r="I30" s="4">
-        <f t="shared" si="32"/>
+      <c r="I36" s="4">
+        <f t="shared" si="40"/>
         <v>4967</v>
       </c>
-      <c r="J30" s="4">
-        <f t="shared" si="32"/>
+      <c r="J36" s="4">
+        <f t="shared" si="40"/>
         <v>5752</v>
       </c>
-      <c r="K30" s="4">
-        <f t="shared" ref="K30:N30" si="33">SUM(K27:K29)</f>
+      <c r="K36" s="4">
+        <f t="shared" ref="K36:N36" si="41">SUM(K33:K35)</f>
         <v>5504</v>
       </c>
-      <c r="L30" s="4">
-        <f t="shared" si="33"/>
+      <c r="L36" s="4">
+        <f t="shared" si="41"/>
         <v>6006</v>
       </c>
-      <c r="M30" s="4">
-        <f t="shared" si="33"/>
+      <c r="M36" s="4">
+        <f t="shared" si="41"/>
         <v>5909.8</v>
       </c>
-      <c r="N30" s="4">
-        <f t="shared" si="33"/>
+      <c r="N36" s="4">
+        <f t="shared" si="41"/>
         <v>6859.8</v>
       </c>
-      <c r="W30" s="4"/>
-      <c r="Z30" s="4">
-        <f t="shared" ref="Z30:AI30" si="34">SUM(Z27:Z29)</f>
+      <c r="W36" s="4"/>
+      <c r="Z36" s="4">
+        <f t="shared" ref="Z36:AK36" si="42">SUM(Z33:Z35)</f>
         <v>1130</v>
       </c>
-      <c r="AA30" s="4">
-        <f t="shared" si="34"/>
+      <c r="AA36" s="4">
+        <f t="shared" si="42"/>
         <v>1406</v>
       </c>
-      <c r="AB30" s="4">
-        <f t="shared" si="34"/>
+      <c r="AB36" s="4">
+        <f t="shared" si="42"/>
         <v>1770</v>
       </c>
-      <c r="AC30" s="4">
-        <f t="shared" si="34"/>
+      <c r="AC36" s="4">
+        <f t="shared" si="42"/>
         <v>2350</v>
       </c>
-      <c r="AD30" s="4">
-        <f t="shared" si="34"/>
+      <c r="AD36" s="4">
+        <f t="shared" si="42"/>
         <v>3339</v>
       </c>
-      <c r="AE30" s="4">
-        <f t="shared" si="34"/>
+      <c r="AE36" s="4">
+        <f t="shared" si="42"/>
         <v>5351</v>
       </c>
-      <c r="AF30" s="4">
-        <f t="shared" si="34"/>
+      <c r="AF36" s="4">
+        <f t="shared" si="42"/>
         <v>8027</v>
       </c>
-      <c r="AG30" s="4">
-        <f t="shared" si="34"/>
+      <c r="AG36" s="4">
+        <f t="shared" si="42"/>
         <v>10941</v>
       </c>
-      <c r="AH30" s="4">
-        <f t="shared" si="34"/>
+      <c r="AH36" s="4">
+        <f t="shared" si="42"/>
         <v>15292</v>
       </c>
-      <c r="AI30" s="4">
-        <f t="shared" si="34"/>
+      <c r="AI36" s="4">
+        <f t="shared" si="42"/>
         <v>19712</v>
       </c>
-    </row>
-    <row r="31" spans="2:35" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="7" t="s">
+      <c r="AJ36" s="4">
+        <f t="shared" si="42"/>
+        <v>24279.599999999999</v>
+      </c>
+      <c r="AK36" s="4">
+        <f t="shared" si="42"/>
+        <v>28920.799999999996</v>
+      </c>
+      <c r="AL36" s="4">
+        <f t="shared" ref="AL36:AZ36" si="43">SUM(AL33:AL35)</f>
+        <v>34468.767999999996</v>
+      </c>
+      <c r="AM36" s="4">
+        <f t="shared" si="43"/>
+        <v>41102.710399999996</v>
+      </c>
+      <c r="AN36" s="4">
+        <f t="shared" si="43"/>
+        <v>49037.460159999988</v>
+      </c>
+      <c r="AO36" s="4">
+        <f t="shared" si="43"/>
+        <v>58530.580639999993</v>
+      </c>
+      <c r="AP36" s="4">
+        <f t="shared" si="43"/>
+        <v>69890.888060799989</v>
+      </c>
+      <c r="AQ36" s="4">
+        <f t="shared" si="43"/>
+        <v>83488.676095039977</v>
+      </c>
+      <c r="AR36" s="4">
+        <f t="shared" si="43"/>
+        <v>99767.98277833598</v>
+      </c>
+      <c r="AS36" s="4">
+        <f t="shared" si="43"/>
+        <v>119261.30794471997</v>
+      </c>
+      <c r="AT36" s="4">
+        <f t="shared" si="43"/>
+        <v>142607.27100545244</v>
+      </c>
+      <c r="AU36" s="4">
+        <f t="shared" si="43"/>
+        <v>170571.79682551025</v>
+      </c>
+      <c r="AV36" s="4">
+        <f t="shared" si="43"/>
+        <v>204073.53497147636</v>
+      </c>
+      <c r="AW36" s="4">
+        <f t="shared" si="43"/>
+        <v>244214.35862472208</v>
+      </c>
+      <c r="AX36" s="4">
+        <f t="shared" si="43"/>
+        <v>292315.95867451205</v>
+      </c>
+      <c r="AY36" s="4">
+        <f t="shared" si="43"/>
+        <v>349963.75156674447</v>
+      </c>
+      <c r="AZ36" s="4">
+        <f t="shared" si="43"/>
+        <v>419059.56315315643</v>
+      </c>
+    </row>
+    <row r="37" spans="2:280" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="8">
-        <f t="shared" ref="C31:J31" si="35">C26-C30</f>
+      <c r="C37" s="8">
+        <f t="shared" ref="C37:J37" si="44">C32-C36</f>
         <v>181</v>
       </c>
-      <c r="D31" s="8">
-        <f t="shared" si="35"/>
+      <c r="D37" s="8">
+        <f t="shared" si="44"/>
         <v>-15</v>
       </c>
-      <c r="E31" s="8">
-        <f t="shared" si="35"/>
+      <c r="E37" s="8">
+        <f t="shared" si="44"/>
         <v>-544</v>
       </c>
-      <c r="F31" s="8">
-        <f t="shared" si="35"/>
+      <c r="F37" s="8">
+        <f t="shared" si="44"/>
         <v>591</v>
       </c>
-      <c r="G31" s="8">
-        <f t="shared" si="35"/>
+      <c r="G37" s="8">
+        <f t="shared" si="44"/>
         <v>255</v>
       </c>
-      <c r="H31" s="8">
-        <f t="shared" si="35"/>
+      <c r="H37" s="8">
+        <f t="shared" si="44"/>
         <v>110</v>
       </c>
-      <c r="I31" s="8">
-        <f t="shared" si="35"/>
+      <c r="I37" s="8">
+        <f t="shared" si="44"/>
         <v>406</v>
       </c>
-      <c r="J31" s="8">
-        <f t="shared" si="35"/>
+      <c r="J37" s="8">
+        <f t="shared" si="44"/>
         <v>1108</v>
       </c>
-      <c r="K31" s="8">
-        <f t="shared" ref="K31:N31" si="36">K26-K30</f>
+      <c r="K37" s="8">
+        <f t="shared" ref="K37:N37" si="45">K32-K36</f>
         <v>1071</v>
       </c>
-      <c r="L31" s="8">
-        <f t="shared" si="36"/>
+      <c r="L37" s="8">
+        <f t="shared" si="45"/>
         <v>1340</v>
       </c>
-      <c r="M31" s="8">
-        <f t="shared" si="36"/>
+      <c r="M37" s="8">
+        <f t="shared" si="45"/>
         <v>1193.8534999999993</v>
       </c>
-      <c r="N31" s="8">
-        <f t="shared" si="36"/>
+      <c r="N37" s="8">
+        <f t="shared" si="45"/>
         <v>3120.1989999999996</v>
       </c>
-      <c r="W31" s="8"/>
-      <c r="Z31" s="8">
-        <f t="shared" ref="Z31:AI31" si="37">Z26-Z30</f>
+      <c r="W37" s="8"/>
+      <c r="Z37" s="8">
+        <f t="shared" ref="Z37:AZ37" si="46">Z32-Z36</f>
         <v>1326</v>
       </c>
-      <c r="AA31" s="8">
-        <f t="shared" si="37"/>
+      <c r="AA37" s="8">
+        <f t="shared" si="46"/>
         <v>1947</v>
       </c>
-      <c r="AB31" s="8">
-        <f t="shared" si="37"/>
+      <c r="AB37" s="8">
+        <f t="shared" si="46"/>
         <v>842</v>
       </c>
-      <c r="AC31" s="8">
-        <f t="shared" si="37"/>
+      <c r="AC37" s="8">
+        <f t="shared" si="46"/>
         <v>1129</v>
       </c>
-      <c r="AD31" s="8">
-        <f t="shared" si="37"/>
+      <c r="AD37" s="8">
+        <f t="shared" si="46"/>
         <v>1406</v>
       </c>
-      <c r="AE31" s="8">
-        <f t="shared" si="37"/>
+      <c r="AE37" s="8">
+        <f t="shared" si="46"/>
         <v>862</v>
       </c>
-      <c r="AF31" s="8">
-        <f t="shared" si="37"/>
+      <c r="AF37" s="8">
+        <f t="shared" si="46"/>
         <v>676</v>
       </c>
-      <c r="AG31" s="8">
-        <f t="shared" si="37"/>
+      <c r="AG37" s="8">
+        <f t="shared" si="46"/>
         <v>745</v>
       </c>
-      <c r="AH31" s="8">
-        <f t="shared" si="37"/>
+      <c r="AH37" s="8">
+        <f t="shared" si="46"/>
         <v>178</v>
       </c>
-      <c r="AI31" s="8">
-        <f t="shared" si="37"/>
+      <c r="AI37" s="8">
+        <f t="shared" si="46"/>
         <v>2233</v>
       </c>
-    </row>
-    <row r="32" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="3" t="s">
+      <c r="AJ37" s="8">
+        <f t="shared" si="46"/>
+        <v>6496.4125000000022</v>
+      </c>
+      <c r="AK37" s="8">
+        <f t="shared" si="46"/>
+        <v>8787.0588749999952</v>
+      </c>
+      <c r="AL37" s="8">
+        <f t="shared" si="46"/>
+        <v>12136.892006249996</v>
+      </c>
+      <c r="AM37" s="8">
+        <f t="shared" si="46"/>
+        <v>17032.069827187494</v>
+      </c>
+      <c r="AN37" s="8">
+        <f t="shared" si="46"/>
+        <v>24171.116809265615</v>
+      </c>
+      <c r="AO37" s="8">
+        <f t="shared" si="46"/>
+        <v>34554.294465855441</v>
+      </c>
+      <c r="AP37" s="8">
+        <f t="shared" si="46"/>
+        <v>49609.73453861376</v>
+      </c>
+      <c r="AQ37" s="8">
+        <f t="shared" si="46"/>
+        <v>71371.262613037848</v>
+      </c>
+      <c r="AR37" s="8">
+        <f t="shared" si="46"/>
+        <v>102728.85854220629</v>
+      </c>
+      <c r="AS37" s="8">
+        <f t="shared" si="46"/>
+        <v>147781.13610265747</v>
+      </c>
+      <c r="AT37" s="8">
+        <f t="shared" si="46"/>
+        <v>212331.04678928712</v>
+      </c>
+      <c r="AU37" s="8">
+        <f t="shared" si="46"/>
+        <v>304582.57863479794</v>
+      </c>
+      <c r="AV37" s="8">
+        <f t="shared" si="46"/>
+        <v>436119.43080277875</v>
+      </c>
+      <c r="AW37" s="8">
+        <f t="shared" si="46"/>
+        <v>623279.15960853221</v>
+      </c>
+      <c r="AX37" s="8">
+        <f t="shared" si="46"/>
+        <v>889081.83792373561</v>
+      </c>
+      <c r="AY37" s="8">
+        <f t="shared" si="46"/>
+        <v>1265936.065403248</v>
+      </c>
+      <c r="AZ37" s="8">
+        <f t="shared" si="46"/>
+        <v>1799434.5175971454</v>
+      </c>
+    </row>
+    <row r="38" spans="2:280" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C38" s="4">
         <v>-26</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D38" s="4">
         <v>-12</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E38" s="4">
         <v>-90</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F38" s="4">
         <f>8-74-96</f>
         <v>-162</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G38" s="4">
         <v>-234</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H38" s="4">
         <v>-102</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I38" s="4">
         <f>13-116-56</f>
         <v>-159</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J38" s="4">
         <f>13-115-68</f>
         <v>-170</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K38" s="4">
         <f>21-117+81-15</f>
         <v>-30</v>
       </c>
-      <c r="L32" s="4">
+      <c r="L38" s="4">
         <f>24-116</f>
         <v>-92</v>
       </c>
-      <c r="M32" s="4">
-        <f t="shared" ref="M32:N32" si="38">+L32</f>
+      <c r="M38" s="4">
+        <f t="shared" ref="M38:N38" si="47">+L38</f>
         <v>-92</v>
       </c>
-      <c r="N32" s="4">
-        <f t="shared" si="38"/>
+      <c r="N38" s="4">
+        <f t="shared" si="47"/>
         <v>-92</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="Z38" s="3">
         <f>59-78+7</f>
         <v>-12</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AA38" s="3">
         <f>90-77-8</f>
         <v>5</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AB38" s="3">
         <f>83-71+47</f>
         <v>59</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AC38" s="3">
         <f>37-34+29</f>
         <v>32</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AD38" s="3">
         <f>51-39+79</f>
         <v>91</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AE38" s="3">
         <f>61-65+76</f>
         <v>72</v>
       </c>
-      <c r="AF32" s="3">
+      <c r="AF38" s="3">
         <f>40-92-80</f>
         <v>-132</v>
       </c>
-      <c r="AG32" s="3">
+      <c r="AG38" s="3">
         <f>38-141-136</f>
         <v>-239</v>
       </c>
-      <c r="AH32" s="3">
+      <c r="AH38" s="3">
         <f>39-210-118</f>
         <v>-289</v>
       </c>
-      <c r="AI32" s="3">
+      <c r="AI38" s="3">
         <f>50-459-256</f>
         <v>-665</v>
       </c>
-    </row>
-    <row r="33" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="3" t="s">
+      <c r="AJ38" s="3">
+        <f>N38</f>
+        <v>-92</v>
+      </c>
+      <c r="AK38" s="3">
+        <f>AJ53*$BC$47</f>
+        <v>324.18094500000001</v>
+      </c>
+      <c r="AL38" s="3">
+        <f t="shared" ref="AL38:AZ38" si="48">AK53*$BC$47</f>
+        <v>488.18326175999994</v>
+      </c>
+      <c r="AM38" s="3">
+        <f t="shared" si="48"/>
+        <v>715.43461658417982</v>
+      </c>
+      <c r="AN38" s="3">
+        <f t="shared" si="48"/>
+        <v>1034.8896965720699</v>
+      </c>
+      <c r="AO38" s="3">
+        <f t="shared" si="48"/>
+        <v>1488.5978136771482</v>
+      </c>
+      <c r="AP38" s="3">
+        <f t="shared" si="48"/>
+        <v>2137.3698747087351</v>
+      </c>
+      <c r="AQ38" s="3">
+        <f t="shared" si="48"/>
+        <v>3068.8177541485402</v>
+      </c>
+      <c r="AR38" s="3">
+        <f t="shared" si="48"/>
+        <v>4408.7392007578947</v>
+      </c>
+      <c r="AS38" s="3">
+        <f t="shared" si="48"/>
+        <v>6337.2159601312505</v>
+      </c>
+      <c r="AT38" s="3">
+        <f t="shared" si="48"/>
+        <v>9111.346297261447</v>
+      </c>
+      <c r="AU38" s="3">
+        <f t="shared" si="48"/>
+        <v>13097.30937281932</v>
+      </c>
+      <c r="AV38" s="3">
+        <f t="shared" si="48"/>
+        <v>18815.547356956431</v>
+      </c>
+      <c r="AW38" s="3">
+        <f t="shared" si="48"/>
+        <v>27004.376963831666</v>
+      </c>
+      <c r="AX38" s="3">
+        <f t="shared" si="48"/>
+        <v>38709.480622134215</v>
+      </c>
+      <c r="AY38" s="3">
+        <f t="shared" si="48"/>
+        <v>55409.724355959872</v>
+      </c>
+      <c r="AZ38" s="3">
+        <f t="shared" si="48"/>
+        <v>79193.948571625602</v>
+      </c>
+    </row>
+    <row r="39" spans="2:280" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="4">
-        <f t="shared" ref="C33:J33" si="39">+C31+C32</f>
+      <c r="C39" s="4">
+        <f t="shared" ref="C39:J39" si="49">+C37+C38</f>
         <v>155</v>
       </c>
-      <c r="D33" s="4">
-        <f t="shared" si="39"/>
+      <c r="D39" s="4">
+        <f t="shared" si="49"/>
         <v>-27</v>
       </c>
-      <c r="E33" s="4">
-        <f t="shared" si="39"/>
+      <c r="E39" s="4">
+        <f t="shared" si="49"/>
         <v>-634</v>
       </c>
-      <c r="F33" s="4">
-        <f t="shared" si="39"/>
+      <c r="F39" s="4">
+        <f t="shared" si="49"/>
         <v>429</v>
       </c>
-      <c r="G33" s="4">
-        <f t="shared" si="39"/>
+      <c r="G39" s="4">
+        <f t="shared" si="49"/>
         <v>21</v>
       </c>
-      <c r="H33" s="4">
-        <f t="shared" si="39"/>
+      <c r="H39" s="4">
+        <f t="shared" si="49"/>
         <v>8</v>
       </c>
-      <c r="I33" s="4">
-        <f t="shared" si="39"/>
+      <c r="I39" s="4">
+        <f t="shared" si="49"/>
         <v>247</v>
       </c>
-      <c r="J33" s="4">
-        <f t="shared" si="39"/>
+      <c r="J39" s="4">
+        <f t="shared" si="49"/>
         <v>938</v>
       </c>
-      <c r="K33" s="4">
-        <f t="shared" ref="K33:N33" si="40">+K31+K32</f>
+      <c r="K39" s="4">
+        <f t="shared" ref="K39:N39" si="50">+K37+K38</f>
         <v>1041</v>
       </c>
-      <c r="L33" s="4">
-        <f t="shared" si="40"/>
+      <c r="L39" s="4">
+        <f t="shared" si="50"/>
         <v>1248</v>
       </c>
-      <c r="M33" s="4">
-        <f t="shared" si="40"/>
+      <c r="M39" s="4">
+        <f t="shared" si="50"/>
         <v>1101.8534999999993</v>
       </c>
-      <c r="N33" s="4">
-        <f t="shared" si="40"/>
+      <c r="N39" s="4">
+        <f t="shared" si="50"/>
         <v>3028.1989999999996</v>
       </c>
-      <c r="W33" s="4"/>
-      <c r="Z33" s="4">
-        <f t="shared" ref="Z33:AI33" si="41">+Z31+Z32</f>
+      <c r="W39" s="4"/>
+      <c r="Z39" s="4">
+        <f t="shared" ref="Z39:AZ39" si="51">+Z37+Z38</f>
         <v>1314</v>
       </c>
-      <c r="AA33" s="4">
-        <f t="shared" si="41"/>
+      <c r="AA39" s="4">
+        <f t="shared" si="51"/>
         <v>1952</v>
       </c>
-      <c r="AB33" s="4">
-        <f t="shared" si="41"/>
+      <c r="AB39" s="4">
+        <f t="shared" si="51"/>
         <v>901</v>
       </c>
-      <c r="AC33" s="4">
-        <f t="shared" si="41"/>
+      <c r="AC39" s="4">
+        <f t="shared" si="51"/>
         <v>1161</v>
       </c>
-      <c r="AD33" s="4">
-        <f t="shared" si="41"/>
+      <c r="AD39" s="4">
+        <f t="shared" si="51"/>
         <v>1497</v>
       </c>
-      <c r="AE33" s="4">
-        <f t="shared" si="41"/>
+      <c r="AE39" s="4">
+        <f t="shared" si="51"/>
         <v>934</v>
       </c>
-      <c r="AF33" s="4">
-        <f t="shared" si="41"/>
+      <c r="AF39" s="4">
+        <f t="shared" si="51"/>
         <v>544</v>
       </c>
-      <c r="AG33" s="4">
-        <f t="shared" si="41"/>
+      <c r="AG39" s="4">
+        <f t="shared" si="51"/>
         <v>506</v>
       </c>
-      <c r="AH33" s="4">
-        <f t="shared" si="41"/>
+      <c r="AH39" s="4">
+        <f t="shared" si="51"/>
         <v>-111</v>
       </c>
-      <c r="AI33" s="4">
-        <f t="shared" si="41"/>
+      <c r="AI39" s="4">
+        <f t="shared" si="51"/>
         <v>1568</v>
       </c>
-    </row>
-    <row r="34" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="3" t="s">
+      <c r="AJ39" s="4">
+        <f t="shared" si="51"/>
+        <v>6404.4125000000022</v>
+      </c>
+      <c r="AK39" s="4">
+        <f t="shared" si="51"/>
+        <v>9111.2398199999952</v>
+      </c>
+      <c r="AL39" s="4">
+        <f t="shared" si="51"/>
+        <v>12625.075268009996</v>
+      </c>
+      <c r="AM39" s="4">
+        <f t="shared" si="51"/>
+        <v>17747.504443771672</v>
+      </c>
+      <c r="AN39" s="4">
+        <f t="shared" si="51"/>
+        <v>25206.006505837686</v>
+      </c>
+      <c r="AO39" s="4">
+        <f t="shared" si="51"/>
+        <v>36042.892279532593</v>
+      </c>
+      <c r="AP39" s="4">
+        <f t="shared" si="51"/>
+        <v>51747.104413322493</v>
+      </c>
+      <c r="AQ39" s="4">
+        <f t="shared" si="51"/>
+        <v>74440.080367186383</v>
+      </c>
+      <c r="AR39" s="4">
+        <f t="shared" si="51"/>
+        <v>107137.59774296418</v>
+      </c>
+      <c r="AS39" s="4">
+        <f t="shared" si="51"/>
+        <v>154118.35206278873</v>
+      </c>
+      <c r="AT39" s="4">
+        <f t="shared" si="51"/>
+        <v>221442.39308654857</v>
+      </c>
+      <c r="AU39" s="4">
+        <f t="shared" si="51"/>
+        <v>317679.88800761726</v>
+      </c>
+      <c r="AV39" s="4">
+        <f t="shared" si="51"/>
+        <v>454934.97815973515</v>
+      </c>
+      <c r="AW39" s="4">
+        <f t="shared" si="51"/>
+        <v>650283.53657236393</v>
+      </c>
+      <c r="AX39" s="4">
+        <f t="shared" si="51"/>
+        <v>927791.31854586978</v>
+      </c>
+      <c r="AY39" s="4">
+        <f t="shared" si="51"/>
+        <v>1321345.7897592077</v>
+      </c>
+      <c r="AZ39" s="4">
+        <f t="shared" si="51"/>
+        <v>1878628.466168771</v>
+      </c>
+    </row>
+    <row r="40" spans="2:280" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C40" s="4">
         <f>-73+61</f>
         <v>-12</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D40" s="4">
         <f>-94+5</f>
         <v>-89</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E40" s="4">
         <f>-205+8</f>
         <v>-197</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F40" s="4">
         <f>205+10</f>
         <v>215</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G40" s="4">
         <f>-71+7</f>
         <v>-64</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H40" s="4">
         <f>-266+4</f>
         <v>-262</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I40" s="4">
         <f>161+7</f>
         <v>168</v>
       </c>
-      <c r="J34" s="4">
+      <c r="J40" s="4">
         <f>453+3</f>
         <v>456</v>
       </c>
-      <c r="K34" s="4">
+      <c r="K40" s="4">
         <f>475</f>
         <v>475</v>
       </c>
-      <c r="L34" s="4">
+      <c r="L40" s="4">
         <v>307</v>
       </c>
-      <c r="M34" s="4">
-        <f t="shared" ref="M34:N34" si="42">+M33*0.4</f>
+      <c r="M40" s="4">
+        <f t="shared" ref="M40:N40" si="52">+M39*0.4</f>
         <v>440.74139999999971</v>
       </c>
-      <c r="N34" s="4">
-        <f t="shared" si="42"/>
+      <c r="N40" s="4">
+        <f t="shared" si="52"/>
         <v>1211.2795999999998</v>
       </c>
-      <c r="Z34" s="3">
+      <c r="Z40" s="3">
         <v>187</v>
       </c>
-      <c r="AA34" s="3">
+      <c r="AA40" s="3">
         <v>184</v>
       </c>
-      <c r="AB34" s="3">
+      <c r="AB40" s="3">
         <f>247+9</f>
         <v>256</v>
       </c>
-      <c r="AC34" s="3">
+      <c r="AC40" s="3">
         <f>253+6</f>
         <v>259</v>
       </c>
-      <c r="AD34" s="3">
+      <c r="AD40" s="3">
         <f>352-7</f>
         <v>345</v>
       </c>
-      <c r="AE34" s="3">
+      <c r="AE40" s="3">
         <f>291+12</f>
         <v>303</v>
       </c>
-      <c r="AF34" s="3">
+      <c r="AF40" s="3">
         <f>428+155</f>
         <v>583</v>
       </c>
-      <c r="AG34" s="3">
+      <c r="AG40" s="3">
         <f>161+71</f>
         <v>232</v>
       </c>
-      <c r="AH34" s="3">
+      <c r="AH40" s="3">
         <f>167-37</f>
         <v>130</v>
       </c>
-      <c r="AI34" s="3">
+      <c r="AI40" s="3">
         <f>950+22</f>
         <v>972</v>
       </c>
-    </row>
-    <row r="35" spans="2:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="5" t="s">
+      <c r="AJ40" s="3">
+        <f>AJ39*0.4</f>
+        <v>2561.7650000000012</v>
+      </c>
+      <c r="AK40" s="3">
+        <f t="shared" ref="AK40:AZ40" si="53">AK39*0.4</f>
+        <v>3644.4959279999985</v>
+      </c>
+      <c r="AL40" s="3">
+        <f t="shared" si="53"/>
+        <v>5050.0301072039983</v>
+      </c>
+      <c r="AM40" s="3">
+        <f t="shared" si="53"/>
+        <v>7099.001777508669</v>
+      </c>
+      <c r="AN40" s="3">
+        <f t="shared" si="53"/>
+        <v>10082.402602335074</v>
+      </c>
+      <c r="AO40" s="3">
+        <f t="shared" si="53"/>
+        <v>14417.156911813037</v>
+      </c>
+      <c r="AP40" s="3">
+        <f t="shared" si="53"/>
+        <v>20698.841765328998</v>
+      </c>
+      <c r="AQ40" s="3">
+        <f t="shared" si="53"/>
+        <v>29776.032146874553</v>
+      </c>
+      <c r="AR40" s="3">
+        <f t="shared" si="53"/>
+        <v>42855.039097185676</v>
+      </c>
+      <c r="AS40" s="3">
+        <f t="shared" si="53"/>
+        <v>61647.340825115498</v>
+      </c>
+      <c r="AT40" s="3">
+        <f t="shared" si="53"/>
+        <v>88576.957234619433</v>
+      </c>
+      <c r="AU40" s="3">
+        <f t="shared" si="53"/>
+        <v>127071.95520304691</v>
+      </c>
+      <c r="AV40" s="3">
+        <f t="shared" si="53"/>
+        <v>181973.99126389407</v>
+      </c>
+      <c r="AW40" s="3">
+        <f t="shared" si="53"/>
+        <v>260113.41462894558</v>
+      </c>
+      <c r="AX40" s="3">
+        <f t="shared" si="53"/>
+        <v>371116.52741834795</v>
+      </c>
+      <c r="AY40" s="3">
+        <f t="shared" si="53"/>
+        <v>528538.31590368308</v>
+      </c>
+      <c r="AZ40" s="3">
+        <f t="shared" si="53"/>
+        <v>751451.38646750851</v>
+      </c>
+    </row>
+    <row r="41" spans="2:280" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="6">
-        <f t="shared" ref="C35:J35" si="43">+C33-C34</f>
+      <c r="C41" s="6">
+        <f t="shared" ref="C41:J41" si="54">+C39-C40</f>
         <v>167</v>
       </c>
-      <c r="D35" s="6">
-        <f t="shared" si="43"/>
+      <c r="D41" s="6">
+        <f t="shared" si="54"/>
         <v>62</v>
       </c>
-      <c r="E35" s="6">
-        <f t="shared" si="43"/>
+      <c r="E41" s="6">
+        <f t="shared" si="54"/>
         <v>-437</v>
       </c>
-      <c r="F35" s="6">
-        <f t="shared" si="43"/>
+      <c r="F41" s="6">
+        <f t="shared" si="54"/>
         <v>214</v>
       </c>
-      <c r="G35" s="6">
-        <f t="shared" si="43"/>
+      <c r="G41" s="6">
+        <f t="shared" si="54"/>
         <v>85</v>
       </c>
-      <c r="H35" s="6">
-        <f t="shared" si="43"/>
+      <c r="H41" s="6">
+        <f t="shared" si="54"/>
         <v>270</v>
       </c>
-      <c r="I35" s="6">
-        <f t="shared" si="43"/>
+      <c r="I41" s="6">
+        <f t="shared" si="54"/>
         <v>79</v>
       </c>
-      <c r="J35" s="6">
-        <f t="shared" si="43"/>
+      <c r="J41" s="6">
+        <f t="shared" si="54"/>
         <v>482</v>
       </c>
-      <c r="K35" s="6">
-        <f t="shared" ref="K35:N35" si="44">+K33-K34</f>
+      <c r="K41" s="6">
+        <f t="shared" ref="K41:N41" si="55">+K39-K40</f>
         <v>566</v>
       </c>
-      <c r="L35" s="6">
-        <f t="shared" si="44"/>
+      <c r="L41" s="6">
+        <f t="shared" si="55"/>
         <v>941</v>
       </c>
-      <c r="M35" s="6">
-        <f t="shared" si="44"/>
+      <c r="M41" s="6">
+        <f t="shared" si="55"/>
         <v>661.1120999999996</v>
       </c>
-      <c r="N35" s="6">
-        <f t="shared" si="44"/>
+      <c r="N41" s="6">
+        <f t="shared" si="55"/>
         <v>1816.9193999999998</v>
       </c>
-      <c r="Z35" s="5">
-        <f t="shared" ref="Z35:AI35" si="45">+Z33-Z34</f>
+      <c r="Z41" s="5">
+        <f t="shared" ref="Z41:AZ41" si="56">+Z39-Z40</f>
         <v>1127</v>
       </c>
-      <c r="AA35" s="5">
-        <f t="shared" si="45"/>
+      <c r="AA41" s="5">
+        <f t="shared" si="56"/>
         <v>1768</v>
       </c>
-      <c r="AB35" s="5">
-        <f t="shared" si="45"/>
+      <c r="AB41" s="5">
+        <f t="shared" si="56"/>
         <v>645</v>
       </c>
-      <c r="AC35" s="5">
-        <f t="shared" si="45"/>
+      <c r="AC41" s="5">
+        <f t="shared" si="56"/>
         <v>902</v>
       </c>
-      <c r="AD35" s="5">
-        <f t="shared" si="45"/>
+      <c r="AD41" s="5">
+        <f t="shared" si="56"/>
         <v>1152</v>
       </c>
-      <c r="AE35" s="5">
-        <f t="shared" si="45"/>
+      <c r="AE41" s="5">
+        <f t="shared" si="56"/>
         <v>631</v>
       </c>
-      <c r="AF35" s="5">
-        <f t="shared" si="45"/>
+      <c r="AF41" s="5">
+        <f t="shared" si="56"/>
         <v>-39</v>
       </c>
-      <c r="AG35" s="5">
-        <f t="shared" si="45"/>
+      <c r="AG41" s="5">
+        <f t="shared" si="56"/>
         <v>274</v>
       </c>
-      <c r="AH35" s="5">
-        <f t="shared" si="45"/>
+      <c r="AH41" s="5">
+        <f t="shared" si="56"/>
         <v>-241</v>
       </c>
-      <c r="AI35" s="5">
-        <f t="shared" si="45"/>
+      <c r="AI41" s="5">
+        <f t="shared" si="56"/>
         <v>596</v>
       </c>
-    </row>
-    <row r="36" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="3" t="s">
+      <c r="AJ41" s="5">
+        <f t="shared" si="56"/>
+        <v>3842.6475000000009</v>
+      </c>
+      <c r="AK41" s="5">
+        <f t="shared" si="56"/>
+        <v>5466.7438919999968</v>
+      </c>
+      <c r="AL41" s="5">
+        <f t="shared" si="56"/>
+        <v>7575.0451608059975</v>
+      </c>
+      <c r="AM41" s="5">
+        <f t="shared" si="56"/>
+        <v>10648.502666263003</v>
+      </c>
+      <c r="AN41" s="5">
+        <f t="shared" si="56"/>
+        <v>15123.603903502612</v>
+      </c>
+      <c r="AO41" s="5">
+        <f t="shared" si="56"/>
+        <v>21625.735367719557</v>
+      </c>
+      <c r="AP41" s="5">
+        <f t="shared" si="56"/>
+        <v>31048.262647993495</v>
+      </c>
+      <c r="AQ41" s="5">
+        <f t="shared" si="56"/>
+        <v>44664.04822031183</v>
+      </c>
+      <c r="AR41" s="5">
+        <f t="shared" si="56"/>
+        <v>64282.558645778503</v>
+      </c>
+      <c r="AS41" s="5">
+        <f t="shared" si="56"/>
+        <v>92471.011237673229</v>
+      </c>
+      <c r="AT41" s="5">
+        <f t="shared" si="56"/>
+        <v>132865.43585192913</v>
+      </c>
+      <c r="AU41" s="5">
+        <f t="shared" si="56"/>
+        <v>190607.93280457036</v>
+      </c>
+      <c r="AV41" s="5">
+        <f t="shared" si="56"/>
+        <v>272960.98689584108</v>
+      </c>
+      <c r="AW41" s="5">
+        <f t="shared" si="56"/>
+        <v>390170.12194341834</v>
+      </c>
+      <c r="AX41" s="5">
+        <f t="shared" si="56"/>
+        <v>556674.79112752178</v>
+      </c>
+      <c r="AY41" s="5">
+        <f t="shared" si="56"/>
+        <v>792807.47385552467</v>
+      </c>
+      <c r="AZ41" s="5">
+        <f t="shared" si="56"/>
+        <v>1127177.0797012625</v>
+      </c>
+      <c r="BA41" s="5">
+        <f>AZ41*(1+$BC$46)</f>
+        <v>1115905.3089042499</v>
+      </c>
+      <c r="BB41" s="5">
+        <f t="shared" ref="BB41:DM41" si="57">BA41*(1+$BC$46)</f>
+        <v>1104746.2558152075</v>
+      </c>
+      <c r="BC41" s="5">
+        <f t="shared" si="57"/>
+        <v>1093698.7932570553</v>
+      </c>
+      <c r="BD41" s="5">
+        <f t="shared" si="57"/>
+        <v>1082761.8053244848</v>
+      </c>
+      <c r="BE41" s="5">
+        <f t="shared" si="57"/>
+        <v>1071934.1872712399</v>
+      </c>
+      <c r="BF41" s="5">
+        <f t="shared" si="57"/>
+        <v>1061214.8453985276</v>
+      </c>
+      <c r="BG41" s="5">
+        <f t="shared" si="57"/>
+        <v>1050602.6969445422</v>
+      </c>
+      <c r="BH41" s="5">
+        <f t="shared" si="57"/>
+        <v>1040096.6699750968</v>
+      </c>
+      <c r="BI41" s="5">
+        <f t="shared" si="57"/>
+        <v>1029695.7032753458</v>
+      </c>
+      <c r="BJ41" s="5">
+        <f t="shared" si="57"/>
+        <v>1019398.7462425923</v>
+      </c>
+      <c r="BK41" s="5">
+        <f t="shared" si="57"/>
+        <v>1009204.7587801664</v>
+      </c>
+      <c r="BL41" s="5">
+        <f t="shared" si="57"/>
+        <v>999112.71119236469</v>
+      </c>
+      <c r="BM41" s="5">
+        <f t="shared" si="57"/>
+        <v>989121.58408044104</v>
+      </c>
+      <c r="BN41" s="5">
+        <f t="shared" si="57"/>
+        <v>979230.36823963665</v>
+      </c>
+      <c r="BO41" s="5">
+        <f t="shared" si="57"/>
+        <v>969438.06455724023</v>
+      </c>
+      <c r="BP41" s="5">
+        <f t="shared" si="57"/>
+        <v>959743.68391166779</v>
+      </c>
+      <c r="BQ41" s="5">
+        <f t="shared" si="57"/>
+        <v>950146.24707255105</v>
+      </c>
+      <c r="BR41" s="5">
+        <f t="shared" si="57"/>
+        <v>940644.78460182552</v>
+      </c>
+      <c r="BS41" s="5">
+        <f t="shared" si="57"/>
+        <v>931238.33675580728</v>
+      </c>
+      <c r="BT41" s="5">
+        <f t="shared" si="57"/>
+        <v>921925.95338824915</v>
+      </c>
+      <c r="BU41" s="5">
+        <f t="shared" si="57"/>
+        <v>912706.69385436666</v>
+      </c>
+      <c r="BV41" s="5">
+        <f t="shared" si="57"/>
+        <v>903579.62691582297</v>
+      </c>
+      <c r="BW41" s="5">
+        <f t="shared" si="57"/>
+        <v>894543.83064666472</v>
+      </c>
+      <c r="BX41" s="5">
+        <f t="shared" si="57"/>
+        <v>885598.39234019804</v>
+      </c>
+      <c r="BY41" s="5">
+        <f t="shared" si="57"/>
+        <v>876742.40841679601</v>
+      </c>
+      <c r="BZ41" s="5">
+        <f t="shared" si="57"/>
+        <v>867974.98433262808</v>
+      </c>
+      <c r="CA41" s="5">
+        <f t="shared" si="57"/>
+        <v>859295.2344893018</v>
+      </c>
+      <c r="CB41" s="5">
+        <f t="shared" si="57"/>
+        <v>850702.28214440879</v>
+      </c>
+      <c r="CC41" s="5">
+        <f t="shared" si="57"/>
+        <v>842195.2593229647</v>
+      </c>
+      <c r="CD41" s="5">
+        <f t="shared" si="57"/>
+        <v>833773.30672973499</v>
+      </c>
+      <c r="CE41" s="5">
+        <f t="shared" si="57"/>
+        <v>825435.57366243761</v>
+      </c>
+      <c r="CF41" s="5">
+        <f t="shared" si="57"/>
+        <v>817181.21792581328</v>
+      </c>
+      <c r="CG41" s="5">
+        <f t="shared" si="57"/>
+        <v>809009.40574655519</v>
+      </c>
+      <c r="CH41" s="5">
+        <f t="shared" si="57"/>
+        <v>800919.31168908963</v>
+      </c>
+      <c r="CI41" s="5">
+        <f t="shared" si="57"/>
+        <v>792910.11857219879</v>
+      </c>
+      <c r="CJ41" s="5">
+        <f t="shared" si="57"/>
+        <v>784981.01738647674</v>
+      </c>
+      <c r="CK41" s="5">
+        <f t="shared" si="57"/>
+        <v>777131.20721261192</v>
+      </c>
+      <c r="CL41" s="5">
+        <f t="shared" si="57"/>
+        <v>769359.89514048584</v>
+      </c>
+      <c r="CM41" s="5">
+        <f t="shared" si="57"/>
+        <v>761666.29618908092</v>
+      </c>
+      <c r="CN41" s="5">
+        <f t="shared" si="57"/>
+        <v>754049.63322719012</v>
+      </c>
+      <c r="CO41" s="5">
+        <f t="shared" si="57"/>
+        <v>746509.13689491816</v>
+      </c>
+      <c r="CP41" s="5">
+        <f t="shared" si="57"/>
+        <v>739044.04552596901</v>
+      </c>
+      <c r="CQ41" s="5">
+        <f t="shared" si="57"/>
+        <v>731653.60507070937</v>
+      </c>
+      <c r="CR41" s="5">
+        <f t="shared" si="57"/>
+        <v>724337.06902000227</v>
+      </c>
+      <c r="CS41" s="5">
+        <f t="shared" si="57"/>
+        <v>717093.69832980225</v>
+      </c>
+      <c r="CT41" s="5">
+        <f t="shared" si="57"/>
+        <v>709922.76134650421</v>
+      </c>
+      <c r="CU41" s="5">
+        <f t="shared" si="57"/>
+        <v>702823.53373303916</v>
+      </c>
+      <c r="CV41" s="5">
+        <f t="shared" si="57"/>
+        <v>695795.29839570879</v>
+      </c>
+      <c r="CW41" s="5">
+        <f t="shared" si="57"/>
+        <v>688837.34541175165</v>
+      </c>
+      <c r="CX41" s="5">
+        <f t="shared" si="57"/>
+        <v>681948.97195763409</v>
+      </c>
+      <c r="CY41" s="5">
+        <f t="shared" si="57"/>
+        <v>675129.48223805777</v>
+      </c>
+      <c r="CZ41" s="5">
+        <f t="shared" si="57"/>
+        <v>668378.18741567724</v>
+      </c>
+      <c r="DA41" s="5">
+        <f t="shared" si="57"/>
+        <v>661694.40554152045</v>
+      </c>
+      <c r="DB41" s="5">
+        <f t="shared" si="57"/>
+        <v>655077.46148610523</v>
+      </c>
+      <c r="DC41" s="5">
+        <f t="shared" si="57"/>
+        <v>648526.68687124422</v>
+      </c>
+      <c r="DD41" s="5">
+        <f t="shared" si="57"/>
+        <v>642041.42000253173</v>
+      </c>
+      <c r="DE41" s="5">
+        <f t="shared" si="57"/>
+        <v>635621.00580250635</v>
+      </c>
+      <c r="DF41" s="5">
+        <f t="shared" si="57"/>
+        <v>629264.79574448126</v>
+      </c>
+      <c r="DG41" s="5">
+        <f t="shared" si="57"/>
+        <v>622972.14778703649</v>
+      </c>
+      <c r="DH41" s="5">
+        <f t="shared" si="57"/>
+        <v>616742.42630916613</v>
+      </c>
+      <c r="DI41" s="5">
+        <f t="shared" si="57"/>
+        <v>610575.00204607449</v>
+      </c>
+      <c r="DJ41" s="5">
+        <f t="shared" si="57"/>
+        <v>604469.25202561368</v>
+      </c>
+      <c r="DK41" s="5">
+        <f t="shared" si="57"/>
+        <v>598424.55950535752</v>
+      </c>
+      <c r="DL41" s="5">
+        <f t="shared" si="57"/>
+        <v>592440.31391030399</v>
+      </c>
+      <c r="DM41" s="5">
+        <f t="shared" si="57"/>
+        <v>586515.9107712009</v>
+      </c>
+      <c r="DN41" s="5">
+        <f t="shared" ref="DN41:FY41" si="58">DM41*(1+$BC$46)</f>
+        <v>580650.75166348892</v>
+      </c>
+      <c r="DO41" s="5">
+        <f t="shared" si="58"/>
+        <v>574844.24414685403</v>
+      </c>
+      <c r="DP41" s="5">
+        <f t="shared" si="58"/>
+        <v>569095.80170538544</v>
+      </c>
+      <c r="DQ41" s="5">
+        <f t="shared" si="58"/>
+        <v>563404.84368833154</v>
+      </c>
+      <c r="DR41" s="5">
+        <f t="shared" si="58"/>
+        <v>557770.79525144817</v>
+      </c>
+      <c r="DS41" s="5">
+        <f t="shared" si="58"/>
+        <v>552193.08729893365</v>
+      </c>
+      <c r="DT41" s="5">
+        <f t="shared" si="58"/>
+        <v>546671.1564259443</v>
+      </c>
+      <c r="DU41" s="5">
+        <f t="shared" si="58"/>
+        <v>541204.44486168481</v>
+      </c>
+      <c r="DV41" s="5">
+        <f t="shared" si="58"/>
+        <v>535792.40041306801</v>
+      </c>
+      <c r="DW41" s="5">
+        <f t="shared" si="58"/>
+        <v>530434.47640893736</v>
+      </c>
+      <c r="DX41" s="5">
+        <f t="shared" si="58"/>
+        <v>525130.13164484804</v>
+      </c>
+      <c r="DY41" s="5">
+        <f t="shared" si="58"/>
+        <v>519878.83032839955</v>
+      </c>
+      <c r="DZ41" s="5">
+        <f t="shared" si="58"/>
+        <v>514680.04202511557</v>
+      </c>
+      <c r="EA41" s="5">
+        <f t="shared" si="58"/>
+        <v>509533.24160486442</v>
+      </c>
+      <c r="EB41" s="5">
+        <f t="shared" si="58"/>
+        <v>504437.9091888158</v>
+      </c>
+      <c r="EC41" s="5">
+        <f t="shared" si="58"/>
+        <v>499393.53009692766</v>
+      </c>
+      <c r="ED41" s="5">
+        <f t="shared" si="58"/>
+        <v>494399.59479595837</v>
+      </c>
+      <c r="EE41" s="5">
+        <f t="shared" si="58"/>
+        <v>489455.59884799877</v>
+      </c>
+      <c r="EF41" s="5">
+        <f t="shared" si="58"/>
+        <v>484561.04285951878</v>
+      </c>
+      <c r="EG41" s="5">
+        <f t="shared" si="58"/>
+        <v>479715.43243092357</v>
+      </c>
+      <c r="EH41" s="5">
+        <f t="shared" si="58"/>
+        <v>474918.27810661431</v>
+      </c>
+      <c r="EI41" s="5">
+        <f t="shared" si="58"/>
+        <v>470169.09532554814</v>
+      </c>
+      <c r="EJ41" s="5">
+        <f t="shared" si="58"/>
+        <v>465467.40437229263</v>
+      </c>
+      <c r="EK41" s="5">
+        <f t="shared" si="58"/>
+        <v>460812.73032856971</v>
+      </c>
+      <c r="EL41" s="5">
+        <f t="shared" si="58"/>
+        <v>456204.60302528401</v>
+      </c>
+      <c r="EM41" s="5">
+        <f t="shared" si="58"/>
+        <v>451642.55699503119</v>
+      </c>
+      <c r="EN41" s="5">
+        <f t="shared" si="58"/>
+        <v>447126.13142508088</v>
+      </c>
+      <c r="EO41" s="5">
+        <f t="shared" si="58"/>
+        <v>442654.87011083006</v>
+      </c>
+      <c r="EP41" s="5">
+        <f t="shared" si="58"/>
+        <v>438228.32140972174</v>
+      </c>
+      <c r="EQ41" s="5">
+        <f t="shared" si="58"/>
+        <v>433846.03819562454</v>
+      </c>
+      <c r="ER41" s="5">
+        <f t="shared" si="58"/>
+        <v>429507.57781366829</v>
+      </c>
+      <c r="ES41" s="5">
+        <f t="shared" si="58"/>
+        <v>425212.50203553162</v>
+      </c>
+      <c r="ET41" s="5">
+        <f t="shared" si="58"/>
+        <v>420960.37701517629</v>
+      </c>
+      <c r="EU41" s="5">
+        <f t="shared" si="58"/>
+        <v>416750.77324502449</v>
+      </c>
+      <c r="EV41" s="5">
+        <f t="shared" si="58"/>
+        <v>412583.26551257423</v>
+      </c>
+      <c r="EW41" s="5">
+        <f t="shared" si="58"/>
+        <v>408457.43285744847</v>
+      </c>
+      <c r="EX41" s="5">
+        <f t="shared" si="58"/>
+        <v>404372.858528874</v>
+      </c>
+      <c r="EY41" s="5">
+        <f t="shared" si="58"/>
+        <v>400329.12994358526</v>
+      </c>
+      <c r="EZ41" s="5">
+        <f t="shared" si="58"/>
+        <v>396325.83864414942</v>
+      </c>
+      <c r="FA41" s="5">
+        <f t="shared" si="58"/>
+        <v>392362.58025770792</v>
+      </c>
+      <c r="FB41" s="5">
+        <f t="shared" si="58"/>
+        <v>388438.95445513085</v>
+      </c>
+      <c r="FC41" s="5">
+        <f t="shared" si="58"/>
+        <v>384554.56491057953</v>
+      </c>
+      <c r="FD41" s="5">
+        <f t="shared" si="58"/>
+        <v>380709.01926147373</v>
+      </c>
+      <c r="FE41" s="5">
+        <f t="shared" si="58"/>
+        <v>376901.92906885897</v>
+      </c>
+      <c r="FF41" s="5">
+        <f t="shared" si="58"/>
+        <v>373132.9097781704</v>
+      </c>
+      <c r="FG41" s="5">
+        <f t="shared" si="58"/>
+        <v>369401.58068038872</v>
+      </c>
+      <c r="FH41" s="5">
+        <f t="shared" si="58"/>
+        <v>365707.56487358484</v>
+      </c>
+      <c r="FI41" s="5">
+        <f t="shared" si="58"/>
+        <v>362050.48922484898</v>
+      </c>
+      <c r="FJ41" s="5">
+        <f t="shared" si="58"/>
+        <v>358429.98433260049</v>
+      </c>
+      <c r="FK41" s="5">
+        <f t="shared" si="58"/>
+        <v>354845.68448927446</v>
+      </c>
+      <c r="FL41" s="5">
+        <f t="shared" si="58"/>
+        <v>351297.2276443817</v>
+      </c>
+      <c r="FM41" s="5">
+        <f t="shared" si="58"/>
+        <v>347784.25536793785</v>
+      </c>
+      <c r="FN41" s="5">
+        <f t="shared" si="58"/>
+        <v>344306.41281425848</v>
+      </c>
+      <c r="FO41" s="5">
+        <f t="shared" si="58"/>
+        <v>340863.34868611587</v>
+      </c>
+      <c r="FP41" s="5">
+        <f t="shared" si="58"/>
+        <v>337454.71519925469</v>
+      </c>
+      <c r="FQ41" s="5">
+        <f t="shared" si="58"/>
+        <v>334080.16804726212</v>
+      </c>
+      <c r="FR41" s="5">
+        <f t="shared" si="58"/>
+        <v>330739.3663667895</v>
+      </c>
+      <c r="FS41" s="5">
+        <f t="shared" si="58"/>
+        <v>327431.9727031216</v>
+      </c>
+      <c r="FT41" s="5">
+        <f t="shared" si="58"/>
+        <v>324157.65297609038</v>
+      </c>
+      <c r="FU41" s="5">
+        <f t="shared" si="58"/>
+        <v>320916.07644632948</v>
+      </c>
+      <c r="FV41" s="5">
+        <f t="shared" si="58"/>
+        <v>317706.91568186617</v>
+      </c>
+      <c r="FW41" s="5">
+        <f t="shared" si="58"/>
+        <v>314529.8465250475</v>
+      </c>
+      <c r="FX41" s="5">
+        <f t="shared" si="58"/>
+        <v>311384.54805979703</v>
+      </c>
+      <c r="FY41" s="5">
+        <f t="shared" si="58"/>
+        <v>308270.70257919905</v>
+      </c>
+      <c r="FZ41" s="5">
+        <f t="shared" ref="FZ41:IK41" si="59">FY41*(1+$BC$46)</f>
+        <v>305187.99555340706</v>
+      </c>
+      <c r="GA41" s="5">
+        <f t="shared" si="59"/>
+        <v>302136.11559787299</v>
+      </c>
+      <c r="GB41" s="5">
+        <f t="shared" si="59"/>
+        <v>299114.75444189424</v>
+      </c>
+      <c r="GC41" s="5">
+        <f t="shared" si="59"/>
+        <v>296123.60689747531</v>
+      </c>
+      <c r="GD41" s="5">
+        <f t="shared" si="59"/>
+        <v>293162.37082850054</v>
+      </c>
+      <c r="GE41" s="5">
+        <f t="shared" si="59"/>
+        <v>290230.74712021556</v>
+      </c>
+      <c r="GF41" s="5">
+        <f t="shared" si="59"/>
+        <v>287328.43964901339</v>
+      </c>
+      <c r="GG41" s="5">
+        <f t="shared" si="59"/>
+        <v>284455.15525252325</v>
+      </c>
+      <c r="GH41" s="5">
+        <f t="shared" si="59"/>
+        <v>281610.603699998</v>
+      </c>
+      <c r="GI41" s="5">
+        <f t="shared" si="59"/>
+        <v>278794.49766299804</v>
+      </c>
+      <c r="GJ41" s="5">
+        <f t="shared" si="59"/>
+        <v>276006.55268636806</v>
+      </c>
+      <c r="GK41" s="5">
+        <f t="shared" si="59"/>
+        <v>273246.48715950438</v>
+      </c>
+      <c r="GL41" s="5">
+        <f t="shared" si="59"/>
+        <v>270514.02228790935</v>
+      </c>
+      <c r="GM41" s="5">
+        <f t="shared" si="59"/>
+        <v>267808.88206503028</v>
+      </c>
+      <c r="GN41" s="5">
+        <f t="shared" si="59"/>
+        <v>265130.79324437998</v>
+      </c>
+      <c r="GO41" s="5">
+        <f t="shared" si="59"/>
+        <v>262479.48531193618</v>
+      </c>
+      <c r="GP41" s="5">
+        <f t="shared" si="59"/>
+        <v>259854.69045881683</v>
+      </c>
+      <c r="GQ41" s="5">
+        <f t="shared" si="59"/>
+        <v>257256.14355422865</v>
+      </c>
+      <c r="GR41" s="5">
+        <f t="shared" si="59"/>
+        <v>254683.58211868635</v>
+      </c>
+      <c r="GS41" s="5">
+        <f t="shared" si="59"/>
+        <v>252136.74629749949</v>
+      </c>
+      <c r="GT41" s="5">
+        <f t="shared" si="59"/>
+        <v>249615.37883452448</v>
+      </c>
+      <c r="GU41" s="5">
+        <f t="shared" si="59"/>
+        <v>247119.22504617923</v>
+      </c>
+      <c r="GV41" s="5">
+        <f t="shared" si="59"/>
+        <v>244648.03279571744</v>
+      </c>
+      <c r="GW41" s="5">
+        <f t="shared" si="59"/>
+        <v>242201.55246776028</v>
+      </c>
+      <c r="GX41" s="5">
+        <f t="shared" si="59"/>
+        <v>239779.53694308267</v>
+      </c>
+      <c r="GY41" s="5">
+        <f t="shared" si="59"/>
+        <v>237381.74157365185</v>
+      </c>
+      <c r="GZ41" s="5">
+        <f t="shared" si="59"/>
+        <v>235007.92415791532</v>
+      </c>
+      <c r="HA41" s="5">
+        <f t="shared" si="59"/>
+        <v>232657.84491633615</v>
+      </c>
+      <c r="HB41" s="5">
+        <f t="shared" si="59"/>
+        <v>230331.2664671728</v>
+      </c>
+      <c r="HC41" s="5">
+        <f t="shared" si="59"/>
+        <v>228027.95380250106</v>
+      </c>
+      <c r="HD41" s="5">
+        <f t="shared" si="59"/>
+        <v>225747.67426447605</v>
+      </c>
+      <c r="HE41" s="5">
+        <f t="shared" si="59"/>
+        <v>223490.19752183129</v>
+      </c>
+      <c r="HF41" s="5">
+        <f t="shared" si="59"/>
+        <v>221255.29554661296</v>
+      </c>
+      <c r="HG41" s="5">
+        <f t="shared" si="59"/>
+        <v>219042.74259114685</v>
+      </c>
+      <c r="HH41" s="5">
+        <f t="shared" si="59"/>
+        <v>216852.31516523537</v>
+      </c>
+      <c r="HI41" s="5">
+        <f t="shared" si="59"/>
+        <v>214683.79201358301</v>
+      </c>
+      <c r="HJ41" s="5">
+        <f t="shared" si="59"/>
+        <v>212536.95409344719</v>
+      </c>
+      <c r="HK41" s="5">
+        <f t="shared" si="59"/>
+        <v>210411.58455251271</v>
+      </c>
+      <c r="HL41" s="5">
+        <f t="shared" si="59"/>
+        <v>208307.46870698757</v>
+      </c>
+      <c r="HM41" s="5">
+        <f t="shared" si="59"/>
+        <v>206224.3940199177</v>
+      </c>
+      <c r="HN41" s="5">
+        <f t="shared" si="59"/>
+        <v>204162.15007971853</v>
+      </c>
+      <c r="HO41" s="5">
+        <f t="shared" si="59"/>
+        <v>202120.52857892134</v>
+      </c>
+      <c r="HP41" s="5">
+        <f t="shared" si="59"/>
+        <v>200099.32329313213</v>
+      </c>
+      <c r="HQ41" s="5">
+        <f t="shared" si="59"/>
+        <v>198098.33006020079</v>
+      </c>
+      <c r="HR41" s="5">
+        <f t="shared" si="59"/>
+        <v>196117.34675959879</v>
+      </c>
+      <c r="HS41" s="5">
+        <f t="shared" si="59"/>
+        <v>194156.17329200279</v>
+      </c>
+      <c r="HT41" s="5">
+        <f t="shared" si="59"/>
+        <v>192214.61155908275</v>
+      </c>
+      <c r="HU41" s="5">
+        <f t="shared" si="59"/>
+        <v>190292.46544349194</v>
+      </c>
+      <c r="HV41" s="5">
+        <f t="shared" si="59"/>
+        <v>188389.54078905701</v>
+      </c>
+      <c r="HW41" s="5">
+        <f t="shared" si="59"/>
+        <v>186505.64538116643</v>
+      </c>
+      <c r="HX41" s="5">
+        <f t="shared" si="59"/>
+        <v>184640.58892735475</v>
+      </c>
+      <c r="HY41" s="5">
+        <f t="shared" si="59"/>
+        <v>182794.18303808119</v>
+      </c>
+      <c r="HZ41" s="5">
+        <f t="shared" si="59"/>
+        <v>180966.24120770037</v>
+      </c>
+      <c r="IA41" s="5">
+        <f t="shared" si="59"/>
+        <v>179156.57879562335</v>
+      </c>
+      <c r="IB41" s="5">
+        <f t="shared" si="59"/>
+        <v>177365.01300766712</v>
+      </c>
+      <c r="IC41" s="5">
+        <f t="shared" si="59"/>
+        <v>175591.36287759044</v>
+      </c>
+      <c r="ID41" s="5">
+        <f t="shared" si="59"/>
+        <v>173835.44924881452</v>
+      </c>
+      <c r="IE41" s="5">
+        <f t="shared" si="59"/>
+        <v>172097.09475632638</v>
+      </c>
+      <c r="IF41" s="5">
+        <f t="shared" si="59"/>
+        <v>170376.12380876311</v>
+      </c>
+      <c r="IG41" s="5">
+        <f t="shared" si="59"/>
+        <v>168672.36257067547</v>
+      </c>
+      <c r="IH41" s="5">
+        <f t="shared" si="59"/>
+        <v>166985.6389449687</v>
+      </c>
+      <c r="II41" s="5">
+        <f t="shared" si="59"/>
+        <v>165315.78255551902</v>
+      </c>
+      <c r="IJ41" s="5">
+        <f t="shared" si="59"/>
+        <v>163662.62472996383</v>
+      </c>
+      <c r="IK41" s="5">
+        <f t="shared" si="59"/>
+        <v>162025.9984826642</v>
+      </c>
+      <c r="IL41" s="5">
+        <f>IK41*(1+$BC$46)</f>
+        <v>160405.73849783756</v>
+      </c>
+      <c r="IM41" s="5">
+        <f>IL41*(1+$BC$46)</f>
+        <v>158801.68111285919</v>
+      </c>
+      <c r="IN41" s="5">
+        <f>IM41*(1+$BC$46)</f>
+        <v>157213.66430173061</v>
+      </c>
+      <c r="IO41" s="5">
+        <f>IN41*(1+$BC$46)</f>
+        <v>155641.52765871331</v>
+      </c>
+      <c r="IP41" s="5">
+        <f>IO41*(1+$BC$46)</f>
+        <v>154085.11238212619</v>
+      </c>
+      <c r="IQ41" s="5">
+        <f>IP41*(1+$BC$46)</f>
+        <v>152544.26125830493</v>
+      </c>
+      <c r="IR41" s="5">
+        <f>IQ41*(1+$BC$46)</f>
+        <v>151018.81864572188</v>
+      </c>
+      <c r="IS41" s="5">
+        <f>IR41*(1+$BC$46)</f>
+        <v>149508.63045926468</v>
+      </c>
+      <c r="IT41" s="5">
+        <f>IS41*(1+$BC$46)</f>
+        <v>148013.54415467204</v>
+      </c>
+      <c r="IU41" s="5">
+        <f>IT41*(1+$BC$46)</f>
+        <v>146533.4087131253</v>
+      </c>
+      <c r="IV41" s="5">
+        <f>IU41*(1+$BC$46)</f>
+        <v>145068.07462599405</v>
+      </c>
+      <c r="IW41" s="5">
+        <f>IV41*(1+$BC$46)</f>
+        <v>143617.3938797341</v>
+      </c>
+      <c r="IX41" s="5">
+        <f>IW41*(1+$BC$46)</f>
+        <v>142181.21994093675</v>
+      </c>
+      <c r="IY41" s="5">
+        <f>IX41*(1+$BC$46)</f>
+        <v>140759.40774152736</v>
+      </c>
+      <c r="IZ41" s="5">
+        <f>IY41*(1+$BC$46)</f>
+        <v>139351.81366411209</v>
+      </c>
+      <c r="JA41" s="5">
+        <f>IZ41*(1+$BC$46)</f>
+        <v>137958.29552747097</v>
+      </c>
+      <c r="JB41" s="5">
+        <f>JA41*(1+$BC$46)</f>
+        <v>136578.71257219627</v>
+      </c>
+      <c r="JC41" s="5">
+        <f>JB41*(1+$BC$46)</f>
+        <v>135212.92544647431</v>
+      </c>
+      <c r="JD41" s="5">
+        <f>JC41*(1+$BC$46)</f>
+        <v>133860.79619200955</v>
+      </c>
+      <c r="JE41" s="5">
+        <f>JD41*(1+$BC$46)</f>
+        <v>132522.18823008946</v>
+      </c>
+      <c r="JF41" s="5">
+        <f>JE41*(1+$BC$46)</f>
+        <v>131196.96634778858</v>
+      </c>
+      <c r="JG41" s="5">
+        <f>JF41*(1+$BC$46)</f>
+        <v>129884.9966843107</v>
+      </c>
+      <c r="JH41" s="5">
+        <f>JG41*(1+$BC$46)</f>
+        <v>128586.14671746759</v>
+      </c>
+      <c r="JI41" s="5">
+        <f>JH41*(1+$BC$46)</f>
+        <v>127300.28525029292</v>
+      </c>
+      <c r="JJ41" s="5">
+        <f>JI41*(1+$BC$46)</f>
+        <v>126027.28239778998</v>
+      </c>
+      <c r="JK41" s="5">
+        <f>JJ41*(1+$BC$46)</f>
+        <v>124767.00957381209</v>
+      </c>
+      <c r="JL41" s="5">
+        <f>JK41*(1+$BC$46)</f>
+        <v>123519.33947807396</v>
+      </c>
+      <c r="JM41" s="5">
+        <f>JL41*(1+$BC$46)</f>
+        <v>122284.14608329322</v>
+      </c>
+      <c r="JN41" s="5">
+        <f>JM41*(1+$BC$46)</f>
+        <v>121061.30462246029</v>
+      </c>
+      <c r="JO41" s="5">
+        <f>JN41*(1+$BC$46)</f>
+        <v>119850.69157623568</v>
+      </c>
+      <c r="JP41" s="5">
+        <f>JO41*(1+$BC$46)</f>
+        <v>118652.18466047333</v>
+      </c>
+      <c r="JQ41" s="5">
+        <f>JP41*(1+$BC$46)</f>
+        <v>117465.66281386859</v>
+      </c>
+      <c r="JR41" s="5">
+        <f>JQ41*(1+$BC$46)</f>
+        <v>116291.0061857299</v>
+      </c>
+      <c r="JS41" s="5">
+        <f>JR41*(1+$BC$46)</f>
+        <v>115128.0961238726</v>
+      </c>
+      <c r="JT41" s="5">
+        <f>JS41*(1+$BC$46)</f>
+        <v>113976.81516263388</v>
+      </c>
+    </row>
+    <row r="42" spans="2:280" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="10">
-        <f t="shared" ref="C36:J36" si="46">C35/C37</f>
+      <c r="C42" s="10">
+        <f t="shared" ref="C42:J42" si="60">C41/C43</f>
         <v>0.35683760683760685</v>
       </c>
-      <c r="D36" s="10">
-        <f t="shared" si="46"/>
+      <c r="D42" s="10">
+        <f t="shared" si="60"/>
         <v>0.13449023861171366</v>
       </c>
-      <c r="E36" s="10">
-        <f t="shared" si="46"/>
+      <c r="E42" s="10">
+        <f t="shared" si="60"/>
         <v>-0.94384449244060475</v>
       </c>
-      <c r="F36" s="10">
-        <f t="shared" si="46"/>
+      <c r="F42" s="10">
+        <f t="shared" si="60"/>
         <v>0.45338983050847459</v>
       </c>
-      <c r="G36" s="10">
-        <f t="shared" si="46"/>
+      <c r="G42" s="10">
+        <f t="shared" si="60"/>
         <v>0.18279569892473119</v>
       </c>
-      <c r="H36" s="10">
-        <f t="shared" si="46"/>
+      <c r="H42" s="10">
+        <f t="shared" si="60"/>
         <v>0.5672268907563025</v>
       </c>
-      <c r="I36" s="10">
-        <f t="shared" si="46"/>
+      <c r="I42" s="10">
+        <f t="shared" si="60"/>
         <v>0.16527196652719664</v>
       </c>
-      <c r="J36" s="10">
-        <f t="shared" si="46"/>
+      <c r="J42" s="10">
+        <f t="shared" si="60"/>
         <v>1.002079002079002</v>
       </c>
-      <c r="K36" s="10">
-        <f t="shared" ref="K36:N36" si="47">K35/K37</f>
+      <c r="K42" s="10">
+        <f t="shared" ref="K42:N42" si="61">K41/K43</f>
         <v>1.1767151767151767</v>
       </c>
-      <c r="L36" s="10">
-        <f t="shared" si="47"/>
+      <c r="L42" s="10">
+        <f t="shared" si="61"/>
         <v>1.9482401656314701</v>
       </c>
-      <c r="M36" s="10">
-        <f t="shared" si="47"/>
+      <c r="M42" s="10">
+        <f t="shared" si="61"/>
         <v>1.3687621118012414</v>
       </c>
-      <c r="N36" s="10">
-        <f t="shared" si="47"/>
+      <c r="N42" s="10">
+        <f t="shared" si="61"/>
         <v>3.7617378881987573</v>
       </c>
-      <c r="W36" s="1"/>
-      <c r="Z36" s="1">
-        <f t="shared" ref="Z36:AI36" si="48">Z35/Z37</f>
+      <c r="W42" s="1"/>
+      <c r="Z42" s="1">
+        <f t="shared" ref="Z42:AZ42" si="62">Z41/Z43</f>
         <v>2.6580188679245285</v>
       </c>
-      <c r="AA36" s="1">
-        <f t="shared" si="48"/>
+      <c r="AA42" s="1">
+        <f t="shared" si="62"/>
         <v>4.1698113207547172</v>
       </c>
-      <c r="AB36" s="1">
-        <f t="shared" si="48"/>
+      <c r="AB42" s="1">
+        <f t="shared" si="62"/>
         <v>1.4930555555555556</v>
       </c>
-      <c r="AC36" s="1">
-        <f t="shared" si="48"/>
+      <c r="AC42" s="1">
+        <f t="shared" si="62"/>
         <v>2.0407239819004523</v>
       </c>
-      <c r="AD36" s="1">
-        <f t="shared" si="48"/>
+      <c r="AD42" s="1">
+        <f t="shared" si="62"/>
         <v>2.5263157894736841</v>
       </c>
-      <c r="AE36" s="1">
-        <f t="shared" si="48"/>
+      <c r="AE42" s="1">
+        <f t="shared" si="62"/>
         <v>1.3687635574837311</v>
       </c>
-      <c r="AF36" s="1">
-        <f t="shared" si="48"/>
+      <c r="AF42" s="1">
+        <f t="shared" si="62"/>
         <v>-8.6092715231788075E-2</v>
       </c>
-      <c r="AG36" s="1">
-        <f t="shared" si="48"/>
+      <c r="AG42" s="1">
+        <f t="shared" si="62"/>
         <v>0.58924731182795698</v>
       </c>
-      <c r="AH36" s="1">
-        <f t="shared" si="48"/>
+      <c r="AH42" s="1">
+        <f t="shared" si="62"/>
         <v>-0.52164502164502169</v>
       </c>
-      <c r="AI36" s="1">
-        <f t="shared" si="48"/>
+      <c r="AI42" s="1">
+        <f t="shared" si="62"/>
         <v>1.249475890985325</v>
       </c>
-    </row>
-    <row r="37" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="3" t="s">
+      <c r="AJ42" s="1">
+        <f t="shared" si="62"/>
+        <v>7.9557919254658405</v>
+      </c>
+      <c r="AK42" s="1">
+        <f t="shared" si="62"/>
+        <v>11.318310335403719</v>
+      </c>
+      <c r="AL42" s="1">
+        <f t="shared" si="62"/>
+        <v>15.683323314298132</v>
+      </c>
+      <c r="AM42" s="1">
+        <f t="shared" si="62"/>
+        <v>22.046589371144933</v>
+      </c>
+      <c r="AN42" s="1">
+        <f t="shared" si="62"/>
+        <v>31.311809324021969</v>
+      </c>
+      <c r="AO42" s="1">
+        <f t="shared" si="62"/>
+        <v>44.773779229233035</v>
+      </c>
+      <c r="AP42" s="1">
+        <f t="shared" si="62"/>
+        <v>64.282117283630427</v>
+      </c>
+      <c r="AQ42" s="1">
+        <f t="shared" si="62"/>
+        <v>92.472149524455133</v>
+      </c>
+      <c r="AR42" s="1">
+        <f t="shared" si="62"/>
+        <v>133.0901835316325</v>
+      </c>
+      <c r="AS42" s="1">
+        <f t="shared" si="62"/>
+        <v>191.45136902209779</v>
+      </c>
+      <c r="AT42" s="1">
+        <f t="shared" si="62"/>
+        <v>275.08371811993607</v>
+      </c>
+      <c r="AU42" s="1">
+        <f t="shared" si="62"/>
+        <v>394.63340125169844</v>
+      </c>
+      <c r="AV42" s="1">
+        <f t="shared" si="62"/>
+        <v>565.13661883196914</v>
+      </c>
+      <c r="AW42" s="1">
+        <f t="shared" si="62"/>
+        <v>807.80563549361977</v>
+      </c>
+      <c r="AX42" s="1">
+        <f t="shared" si="62"/>
+        <v>1152.5357994358628</v>
+      </c>
+      <c r="AY42" s="1">
+        <f t="shared" si="62"/>
+        <v>1641.423341315786</v>
+      </c>
+      <c r="AZ42" s="1">
+        <f t="shared" si="62"/>
+        <v>2333.6999579736284</v>
+      </c>
+    </row>
+    <row r="43" spans="2:280" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C43" s="4">
         <v>468</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D43" s="4">
         <v>461</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E43" s="4">
         <v>463</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F43" s="4">
         <v>472</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G43" s="4">
         <v>465</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H43" s="4">
         <v>476</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I43" s="4">
         <v>478</v>
       </c>
-      <c r="J37" s="4">
+      <c r="J43" s="4">
         <v>481</v>
       </c>
-      <c r="K37" s="4">
+      <c r="K43" s="4">
         <v>481</v>
       </c>
-      <c r="L37" s="4">
+      <c r="L43" s="4">
         <v>483</v>
       </c>
-      <c r="M37" s="4">
-        <f t="shared" ref="M37:N37" si="49">+L37</f>
+      <c r="M43" s="4">
+        <f t="shared" ref="M43:N43" si="63">+L43</f>
         <v>483</v>
       </c>
-      <c r="N37" s="4">
-        <f t="shared" si="49"/>
+      <c r="N43" s="4">
+        <f t="shared" si="63"/>
         <v>483</v>
       </c>
-      <c r="Z37" s="3">
+      <c r="Z43" s="3">
         <v>424</v>
       </c>
-      <c r="AA37" s="3">
+      <c r="AA43" s="3">
         <v>424</v>
       </c>
-      <c r="AB37" s="3">
+      <c r="AB43" s="3">
         <v>432</v>
       </c>
-      <c r="AC37" s="3">
+      <c r="AC43" s="3">
         <v>442</v>
       </c>
-      <c r="AD37" s="3">
+      <c r="AD43" s="3">
         <v>456</v>
       </c>
-      <c r="AE37" s="3">
+      <c r="AE43" s="3">
         <v>461</v>
       </c>
-      <c r="AF37" s="3">
+      <c r="AF43" s="3">
         <v>453</v>
       </c>
-      <c r="AG37" s="3">
+      <c r="AG43" s="3">
         <v>465</v>
       </c>
-      <c r="AH37" s="3">
+      <c r="AH43" s="3">
         <v>462</v>
       </c>
-      <c r="AI37" s="3">
+      <c r="AI43" s="3">
         <v>477</v>
       </c>
-    </row>
-    <row r="38" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-    </row>
-    <row r="39" spans="2:35" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="7" t="s">
+      <c r="AJ43" s="4">
+        <f>N43</f>
+        <v>483</v>
+      </c>
+      <c r="AK43" s="3">
+        <f>AJ43</f>
+        <v>483</v>
+      </c>
+      <c r="AL43" s="3">
+        <f t="shared" ref="AL43:AZ43" si="64">AK43</f>
+        <v>483</v>
+      </c>
+      <c r="AM43" s="3">
+        <f t="shared" si="64"/>
+        <v>483</v>
+      </c>
+      <c r="AN43" s="3">
+        <f t="shared" si="64"/>
+        <v>483</v>
+      </c>
+      <c r="AO43" s="3">
+        <f t="shared" si="64"/>
+        <v>483</v>
+      </c>
+      <c r="AP43" s="3">
+        <f t="shared" si="64"/>
+        <v>483</v>
+      </c>
+      <c r="AQ43" s="3">
+        <f t="shared" si="64"/>
+        <v>483</v>
+      </c>
+      <c r="AR43" s="3">
+        <f t="shared" si="64"/>
+        <v>483</v>
+      </c>
+      <c r="AS43" s="3">
+        <f t="shared" si="64"/>
+        <v>483</v>
+      </c>
+      <c r="AT43" s="3">
+        <f t="shared" si="64"/>
+        <v>483</v>
+      </c>
+      <c r="AU43" s="3">
+        <f t="shared" si="64"/>
+        <v>483</v>
+      </c>
+      <c r="AV43" s="3">
+        <f t="shared" si="64"/>
+        <v>483</v>
+      </c>
+      <c r="AW43" s="3">
+        <f t="shared" si="64"/>
+        <v>483</v>
+      </c>
+      <c r="AX43" s="3">
+        <f t="shared" si="64"/>
+        <v>483</v>
+      </c>
+      <c r="AY43" s="3">
+        <f t="shared" si="64"/>
+        <v>483</v>
+      </c>
+      <c r="AZ43" s="3">
+        <f t="shared" si="64"/>
+        <v>483</v>
+      </c>
+    </row>
+    <row r="44" spans="2:280" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+    </row>
+    <row r="45" spans="2:280" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="16">
-        <f t="shared" ref="G39:K41" si="50">G21/C21-1</f>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="16">
+        <f t="shared" ref="G45:K47" si="65">G27/C27-1</f>
         <v>8.7806431072906754E-2</v>
       </c>
-      <c r="H39" s="16">
-        <f t="shared" si="50"/>
+      <c r="H45" s="16">
+        <f t="shared" si="65"/>
         <v>0.12150022949314798</v>
       </c>
-      <c r="I39" s="16">
-        <f t="shared" si="50"/>
+      <c r="I45" s="16">
+        <f t="shared" si="65"/>
         <v>0.15235301460491835</v>
       </c>
-      <c r="J39" s="16">
-        <f t="shared" si="50"/>
+      <c r="J45" s="16">
+        <f t="shared" si="65"/>
         <v>0.15219461518483257</v>
       </c>
-      <c r="K39" s="16">
-        <f t="shared" si="50"/>
+      <c r="K45" s="16">
+        <f t="shared" si="65"/>
         <v>0.20469445094825578</v>
       </c>
-      <c r="L39" s="16">
-        <f t="shared" ref="L39:N39" si="51">L21/H21-1</f>
+      <c r="L45" s="16">
+        <f t="shared" ref="L45:N45" si="66">L27/H27-1</f>
         <v>0.23456501403180541</v>
       </c>
-      <c r="M39" s="16">
-        <f t="shared" si="51"/>
+      <c r="M45" s="16">
+        <f t="shared" si="66"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="N39" s="16">
-        <f t="shared" si="51"/>
+      <c r="N45" s="16">
+        <f t="shared" si="66"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="AE39" s="17"/>
-      <c r="AF39" s="17">
-        <f t="shared" ref="AF39:AI41" si="52">AF21/AE21-1</f>
+      <c r="AE45" s="17"/>
+      <c r="AF45" s="17">
+        <f t="shared" ref="AF45:AI47" si="67">AF27/AE27-1</f>
         <v>0.23173809523809519</v>
       </c>
-      <c r="AG39" s="17">
-        <f t="shared" si="52"/>
+      <c r="AG45" s="17">
+        <f t="shared" si="67"/>
         <v>0.17725629675448951</v>
       </c>
-      <c r="AH39" s="17">
-        <f t="shared" si="52"/>
+      <c r="AH45" s="17">
+        <f t="shared" si="67"/>
         <v>0.15068223240234468</v>
       </c>
-      <c r="AI39" s="17">
-        <f t="shared" si="52"/>
+      <c r="AI45" s="17">
+        <f t="shared" si="67"/>
         <v>0.131107305936073</v>
       </c>
-    </row>
-    <row r="40" spans="2:35" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="7" t="s">
+      <c r="AJ45" s="17">
+        <f t="shared" ref="AJ45:AJ47" si="68">AJ27/AI27-1</f>
+        <v>0.18004932633597415</v>
+      </c>
+      <c r="AK45" s="17">
+        <f t="shared" ref="AK45:AK47" si="69">AK27/AJ27-1</f>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="AL45" s="17">
+        <f t="shared" ref="AL45:AL47" si="70">AL27/AK27-1</f>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="AM45" s="17">
+        <f t="shared" ref="AM45:AM47" si="71">AM27/AL27-1</f>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="AN45" s="17">
+        <f t="shared" ref="AN45:AN47" si="72">AN27/AM27-1</f>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="AO45" s="17">
+        <f t="shared" ref="AO45:AO47" si="73">AO27/AN27-1</f>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="AP45" s="17">
+        <f t="shared" ref="AP45:AP47" si="74">AP27/AO27-1</f>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="AQ45" s="17">
+        <f t="shared" ref="AQ45:AQ47" si="75">AQ27/AP27-1</f>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="AR45" s="17">
+        <f t="shared" ref="AR45:AR47" si="76">AR27/AQ27-1</f>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="AS45" s="17">
+        <f t="shared" ref="AS45:AS47" si="77">AS27/AR27-1</f>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="AT45" s="17">
+        <f t="shared" ref="AT45:AT47" si="78">AT27/AS27-1</f>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="AU45" s="17">
+        <f t="shared" ref="AU45:AU47" si="79">AU27/AT27-1</f>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="AV45" s="17">
+        <f t="shared" ref="AV45:AV47" si="80">AV27/AU27-1</f>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="AW45" s="17">
+        <f t="shared" ref="AW45:AW47" si="81">AW27/AV27-1</f>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="AX45" s="17">
+        <f t="shared" ref="AX45:AX47" si="82">AX27/AW27-1</f>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="AY45" s="17">
+        <f t="shared" ref="AY45:AY47" si="83">AY27/AX27-1</f>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="AZ45" s="17">
+        <f t="shared" ref="AZ45:AZ47" si="84">AZ27/AY27-1</f>
+        <v>0.14999999999999991</v>
+      </c>
+    </row>
+    <row r="46" spans="2:280" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="16">
-        <f t="shared" si="50"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="16">
+        <f t="shared" si="65"/>
         <v>0.39568880079286428</v>
       </c>
-      <c r="H40" s="16">
-        <f t="shared" si="50"/>
+      <c r="H46" s="16">
+        <f t="shared" si="65"/>
         <v>0.48716067498165816</v>
       </c>
-      <c r="I40" s="16">
-        <f t="shared" si="50"/>
+      <c r="I46" s="16">
+        <f t="shared" si="65"/>
         <v>0.51305683563748072</v>
       </c>
-      <c r="J40" s="16">
-        <f t="shared" si="50"/>
+      <c r="J46" s="16">
+        <f t="shared" si="65"/>
         <v>0.46627047863796989</v>
       </c>
-      <c r="K40" s="16">
-        <f t="shared" si="50"/>
+      <c r="K46" s="16">
+        <f t="shared" si="65"/>
         <v>0.5173087164921002</v>
       </c>
-      <c r="L40" s="16">
-        <f t="shared" ref="L40:N40" si="53">L22/H22-1</f>
+      <c r="L46" s="16">
+        <f t="shared" ref="L46:N46" si="85">L28/H28-1</f>
         <v>0.5273803650715343</v>
       </c>
-      <c r="M40" s="16">
-        <f t="shared" si="53"/>
+      <c r="M46" s="16">
+        <f t="shared" si="85"/>
         <v>0.39999999999999991</v>
       </c>
-      <c r="N40" s="16">
-        <f t="shared" si="53"/>
+      <c r="N46" s="16">
+        <f t="shared" si="85"/>
         <v>0.39999999999999991</v>
       </c>
-      <c r="AE40" s="17"/>
-      <c r="AF40" s="17">
-        <f t="shared" si="52"/>
+      <c r="AE46" s="17"/>
+      <c r="AF46" s="17">
+        <f t="shared" si="67"/>
         <v>0.540233667928254</v>
       </c>
-      <c r="AG40" s="17">
-        <f t="shared" si="52"/>
+      <c r="AG46" s="17">
+        <f t="shared" si="67"/>
         <v>0.44754273504273501</v>
       </c>
-      <c r="AH40" s="17">
-        <f t="shared" si="52"/>
+      <c r="AH46" s="17">
+        <f t="shared" si="67"/>
         <v>0.3955273451915271</v>
       </c>
-      <c r="AI40" s="17">
-        <f t="shared" si="52"/>
+      <c r="AI46" s="17">
+        <f t="shared" si="67"/>
         <v>0.46699809604400255</v>
       </c>
-    </row>
-    <row r="41" spans="2:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="5" t="s">
+      <c r="AJ46" s="17">
+        <f t="shared" si="68"/>
+        <v>0.45174850385752396</v>
+      </c>
+      <c r="AK46" s="17">
+        <f t="shared" si="69"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="AL46" s="17">
+        <f t="shared" si="70"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="AM46" s="17">
+        <f t="shared" si="71"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="AN46" s="17">
+        <f t="shared" si="72"/>
+        <v>0.40000000000000013</v>
+      </c>
+      <c r="AO46" s="17">
+        <f t="shared" si="73"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="AP46" s="17">
+        <f t="shared" si="74"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="AQ46" s="17">
+        <f t="shared" si="75"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="AR46" s="17">
+        <f t="shared" si="76"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="AS46" s="17">
+        <f t="shared" si="77"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="AT46" s="17">
+        <f t="shared" si="78"/>
+        <v>0.40000000000000013</v>
+      </c>
+      <c r="AU46" s="17">
+        <f t="shared" si="79"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="AV46" s="17">
+        <f t="shared" si="80"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="AW46" s="17">
+        <f t="shared" si="81"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="AX46" s="17">
+        <f t="shared" si="82"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="AY46" s="17">
+        <f t="shared" si="83"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="AZ46" s="17">
+        <f t="shared" si="84"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="BB46" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="BC46" s="22">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="47" spans="2:280" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="11">
-        <f t="shared" si="50"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="11">
+        <f t="shared" si="65"/>
         <v>0.15075224152778488</v>
       </c>
-      <c r="H41" s="11">
-        <f t="shared" si="50"/>
+      <c r="H47" s="11">
+        <f t="shared" si="65"/>
         <v>0.19881075491209921</v>
       </c>
-      <c r="I41" s="11">
-        <f t="shared" si="50"/>
+      <c r="I47" s="11">
+        <f t="shared" si="65"/>
         <v>0.23222702755235924</v>
       </c>
-      <c r="J41" s="11">
-        <f t="shared" si="50"/>
+      <c r="J47" s="11">
+        <f t="shared" si="65"/>
         <v>0.21886933987997814</v>
       </c>
-      <c r="K41" s="11">
-        <f t="shared" si="50"/>
+      <c r="K47" s="11">
+        <f t="shared" si="65"/>
         <v>0.28221155962495037</v>
       </c>
-      <c r="L41" s="11">
-        <f t="shared" ref="L41:N41" si="54">L23/H23-1</f>
+      <c r="L47" s="11">
+        <f t="shared" ref="L47:N47" si="86">L29/H29-1</f>
         <v>0.31136510675005402</v>
       </c>
-      <c r="M41" s="11">
-        <f t="shared" si="54"/>
+      <c r="M47" s="11">
+        <f t="shared" si="86"/>
         <v>0.21797657543970339</v>
       </c>
-      <c r="N41" s="11">
-        <f t="shared" si="54"/>
+      <c r="N47" s="11">
+        <f t="shared" si="86"/>
         <v>0.21384451842112617</v>
       </c>
-      <c r="Q41" s="12">
-        <f t="shared" ref="Q41:Z41" si="55">Q23/P23-1</f>
+      <c r="Q47" s="12">
+        <f t="shared" ref="Q47:Z47" si="87">Q29/P29-1</f>
         <v>8.3856852533976891</v>
       </c>
-      <c r="R41" s="12">
-        <f t="shared" si="55"/>
+      <c r="R47" s="12">
+        <f t="shared" si="87"/>
         <v>3.1263372285789677</v>
       </c>
-      <c r="S41" s="12">
-        <f t="shared" si="55"/>
+      <c r="S47" s="12">
+        <f t="shared" si="87"/>
         <v>1.6890585567192891</v>
       </c>
-      <c r="T41" s="12">
-        <f t="shared" si="55"/>
+      <c r="T47" s="12">
+        <f t="shared" si="87"/>
         <v>0.68430132470321792</v>
       </c>
-      <c r="U41" s="12">
-        <f t="shared" si="55"/>
+      <c r="U47" s="12">
+        <f t="shared" si="87"/>
         <v>0.1305040617556299</v>
       </c>
-      <c r="V41" s="12">
-        <f t="shared" si="55"/>
+      <c r="V47" s="12">
+        <f t="shared" si="87"/>
         <v>0.25957418461821291</v>
       </c>
-      <c r="W41" s="12">
-        <f t="shared" si="55"/>
+      <c r="W47" s="12">
+        <f t="shared" si="87"/>
         <v>0.3383637567455966</v>
       </c>
-      <c r="X41" s="12">
-        <f t="shared" si="55"/>
+      <c r="X47" s="12">
+        <f t="shared" si="87"/>
         <v>0.31485481977597884</v>
       </c>
-      <c r="Y41" s="12">
-        <f t="shared" si="55"/>
+      <c r="Y47" s="12">
+        <f t="shared" si="87"/>
         <v>0.22670134373645423</v>
       </c>
-      <c r="Z41" s="12">
-        <f t="shared" si="55"/>
+      <c r="Z47" s="12">
+        <f t="shared" si="87"/>
         <v>0.26160188457008249</v>
       </c>
-      <c r="AA41" s="12">
-        <f>AA23/Z23-1</f>
+      <c r="AA47" s="12">
+        <f>AA29/Z29-1</f>
         <v>0.38502474092054895</v>
       </c>
-      <c r="AB41" s="12">
-        <f>AB23/AA23-1</f>
+      <c r="AB47" s="12">
+        <f>AB29/AA29-1</f>
         <v>0.29194472531176263</v>
       </c>
-      <c r="AC41" s="12">
-        <f>AC23/AB23-1</f>
+      <c r="AC47" s="12">
+        <f>AC29/AB29-1</f>
         <v>0.27877491391004905</v>
       </c>
-      <c r="AD41" s="12">
-        <f>AD23/AC23-1</f>
+      <c r="AD47" s="12">
+        <f>AD29/AC29-1</f>
         <v>0.39556897466236896</v>
       </c>
-      <c r="AE41" s="12">
-        <f>AE23/AD23-1</f>
+      <c r="AE47" s="12">
+        <f>AE29/AD29-1</f>
         <v>0.40559583674424049</v>
       </c>
-      <c r="AF41" s="12">
-        <f t="shared" si="52"/>
+      <c r="AF47" s="12">
+        <f t="shared" si="67"/>
         <v>0.27073236682821311</v>
       </c>
-      <c r="AG41" s="12">
-        <f t="shared" si="52"/>
+      <c r="AG47" s="12">
+        <f t="shared" si="67"/>
         <v>0.21866662301736706</v>
       </c>
-      <c r="AH41" s="12">
-        <f t="shared" si="52"/>
+      <c r="AH47" s="12">
+        <f t="shared" si="67"/>
         <v>0.1952398861011122</v>
       </c>
-      <c r="AI41" s="12">
-        <f t="shared" si="52"/>
+      <c r="AI47" s="12">
+        <f t="shared" si="67"/>
         <v>0.20247673843664304</v>
       </c>
-    </row>
-    <row r="42" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-    </row>
-    <row r="43" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B43" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C43" s="9">
-        <f t="shared" ref="C43" si="56">C26/C23</f>
-        <v>0.17066004761663542</v>
-      </c>
-      <c r="D43" s="9">
-        <f t="shared" ref="D43:E43" si="57">D26/D23</f>
-        <v>0.18402275077559463</v>
-      </c>
-      <c r="E43" s="9">
-        <f t="shared" si="57"/>
-        <v>0.16079498517906604</v>
-      </c>
-      <c r="F43" s="9">
-        <f>F26/F23</f>
-        <v>0.17843016912165849</v>
-      </c>
-      <c r="G43" s="9">
-        <f>G26/G23</f>
-        <v>0.20086278998107143</v>
-      </c>
-      <c r="H43" s="9">
-        <f>H26/H23</f>
-        <v>0.20681475091654086</v>
-      </c>
-      <c r="I43" s="9">
-        <f>I26/I23</f>
-        <v>0.21188579540973262</v>
-      </c>
-      <c r="J43" s="9">
-        <f>J26/J23</f>
-        <v>0.19190421573838365</v>
-      </c>
-      <c r="K43" s="9">
-        <f t="shared" ref="K43:N43" si="58">K26/K23</f>
-        <v>0.22572782202691569</v>
-      </c>
-      <c r="L43" s="9">
-        <f t="shared" si="58"/>
-        <v>0.24161294566504407</v>
-      </c>
-      <c r="M43" s="9">
-        <f t="shared" si="58"/>
-        <v>0.23</v>
-      </c>
-      <c r="N43" s="9">
-        <f t="shared" si="58"/>
-        <v>0.23</v>
-      </c>
-      <c r="Z43" s="9">
-        <f t="shared" ref="Z43:AB43" si="59">Z26/Z23</f>
-        <v>0.22929698440855195</v>
-      </c>
-      <c r="AA43" s="9">
-        <f t="shared" si="59"/>
-        <v>0.22601954836535221</v>
-      </c>
-      <c r="AB43" s="9">
-        <f t="shared" si="59"/>
-        <v>0.13628300114786601</v>
-      </c>
-      <c r="AC43" s="9">
-        <f t="shared" ref="AC43:AD43" si="60">AC26/AC23</f>
-        <v>0.14194785588967318</v>
-      </c>
-      <c r="AD43" s="9">
-        <f t="shared" si="60"/>
-        <v>0.13872646474096598</v>
-      </c>
-      <c r="AE43" s="9">
-        <f t="shared" ref="AE43:AF43" si="61">AE26/AE23</f>
-        <v>0.12923019323169083</v>
-      </c>
-      <c r="AF43" s="9">
-        <f t="shared" si="61"/>
-        <v>0.14245494573846432</v>
-      </c>
-      <c r="AG43" s="9">
-        <f t="shared" ref="AG43" si="62">AG26/AG23</f>
-        <v>0.1569601891151346</v>
-      </c>
-      <c r="AH43" s="9">
-        <f t="shared" ref="AH43:AI43" si="63">AH26/AH23</f>
-        <v>0.17384366431428958</v>
-      </c>
-      <c r="AI43" s="9">
-        <f t="shared" si="63"/>
-        <v>0.20508195802104554</v>
-      </c>
-    </row>
-    <row r="44" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B44" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44" s="9">
-        <f t="shared" ref="C44" si="64">C31/C23</f>
-        <v>9.1687351198014282E-3</v>
-      </c>
-      <c r="D44" s="9">
-        <f t="shared" ref="D44:E44" si="65">D31/D23</f>
-        <v>-7.7559462254395031E-4</v>
-      </c>
-      <c r="E44" s="9">
-        <f t="shared" si="65"/>
-        <v>-2.6434715000728897E-2</v>
-      </c>
-      <c r="F44" s="9">
-        <f>F31/F23</f>
-        <v>2.015139116202946E-2</v>
-      </c>
-      <c r="G44" s="9">
-        <f>G31/G23</f>
-        <v>1.1225073733327463E-2</v>
-      </c>
-      <c r="H44" s="9">
-        <f>H31/H23</f>
-        <v>4.7444468406297171E-3</v>
-      </c>
-      <c r="I44" s="9">
-        <f>I31/I23</f>
-        <v>1.6010726397980915E-2</v>
-      </c>
-      <c r="J44" s="9">
-        <f>J31/J23</f>
-        <v>3.0995608023050885E-2</v>
-      </c>
-      <c r="K44" s="9">
-        <f t="shared" ref="K44:N44" si="66">K31/K23</f>
-        <v>3.6768744850315845E-2</v>
-      </c>
-      <c r="L44" s="9">
-        <f t="shared" si="66"/>
-        <v>4.4073148269964481E-2</v>
-      </c>
-      <c r="M44" s="9">
-        <f t="shared" si="66"/>
-        <v>3.8654236865579082E-2</v>
-      </c>
-      <c r="N44" s="9">
-        <f t="shared" si="66"/>
-        <v>7.1908400992825749E-2</v>
-      </c>
-      <c r="Z44" s="9">
-        <f t="shared" ref="Z44:AB44" si="67">Z31/Z23</f>
-        <v>0.12379796470917748</v>
-      </c>
-      <c r="AA44" s="9">
-        <f t="shared" si="67"/>
-        <v>0.13124368048533872</v>
-      </c>
-      <c r="AB44" s="9">
-        <f t="shared" si="67"/>
-        <v>4.3931962850881773E-2</v>
-      </c>
-      <c r="AC44" s="9">
-        <f t="shared" ref="AC44:AD44" si="68">AC31/AC23</f>
-        <v>4.6064710922518258E-2</v>
-      </c>
-      <c r="AD44" s="9">
+      <c r="AJ47" s="12">
         <f t="shared" si="68"/>
-        <v>4.1106303356332592E-2</v>
-      </c>
-      <c r="AE44" s="9">
-        <f t="shared" ref="AE44:AF44" si="69">AE31/AE23</f>
-        <v>1.79295713126859E-2</v>
-      </c>
-      <c r="AF44" s="9">
+        <v>0.25047894510588198</v>
+      </c>
+      <c r="AK47" s="12">
         <f t="shared" si="69"/>
-        <v>1.1065097474342396E-2</v>
-      </c>
-      <c r="AG44" s="9">
-        <f t="shared" ref="AG44" si="70">AG31/AG23</f>
-        <v>1.0006447106860796E-2</v>
-      </c>
-      <c r="AH44" s="9">
-        <f t="shared" ref="AH44:AI44" si="71">AH31/AH23</f>
-        <v>2.000269699285297E-3</v>
-      </c>
-      <c r="AI44" s="9">
+        <v>0.22523536390557397</v>
+      </c>
+      <c r="AL47" s="12">
+        <f t="shared" si="70"/>
+        <v>0.23596675591541394</v>
+      </c>
+      <c r="AM47" s="12">
         <f t="shared" si="71"/>
-        <v>2.0867988710913405E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B46" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K46" s="4">
-        <f>K47-K58</f>
-        <v>7640</v>
-      </c>
-    </row>
-    <row r="47" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4">
-        <f>12470+3389</f>
-        <v>15859</v>
-      </c>
-      <c r="L47" s="4">
-        <f>12521+4019</f>
-        <v>16540</v>
-      </c>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-    </row>
-    <row r="48" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>0.24737596719779109</v>
+      </c>
+      <c r="AN47" s="12">
+        <f t="shared" si="72"/>
+        <v>0.25929050876550264</v>
+      </c>
+      <c r="AO47" s="12">
+        <f t="shared" si="73"/>
+        <v>0.27150231515815815</v>
+      </c>
+      <c r="AP47" s="12">
+        <f t="shared" si="74"/>
+        <v>0.28378130672161839</v>
+      </c>
+      <c r="AQ47" s="12">
+        <f t="shared" si="75"/>
+        <v>0.29589231704000785</v>
+      </c>
+      <c r="AR47" s="12">
+        <f t="shared" si="76"/>
+        <v>0.30761282104252574</v>
+      </c>
+      <c r="AS47" s="12">
+        <f t="shared" si="77"/>
+        <v>0.3187486891445519</v>
+      </c>
+      <c r="AT47" s="12">
+        <f t="shared" si="78"/>
+        <v>0.32914570588549608</v>
+      </c>
+      <c r="AU47" s="12">
+        <f t="shared" si="79"/>
+        <v>0.33869563143388026</v>
+      </c>
+      <c r="AV47" s="12">
+        <f t="shared" si="80"/>
+        <v>0.34733677902905757</v>
+      </c>
+      <c r="AW47" s="12">
+        <f t="shared" si="81"/>
+        <v>0.35505006242000769</v>
+      </c>
+      <c r="AX47" s="12">
+        <f t="shared" si="82"/>
+        <v>0.36185201591395644</v>
+      </c>
+      <c r="AY47" s="12">
+        <f t="shared" si="83"/>
+        <v>0.36778638120272666</v>
+      </c>
+      <c r="AZ47" s="12">
+        <f t="shared" si="84"/>
+        <v>0.37291560866084295</v>
+      </c>
+      <c r="BB47" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="BC47" s="22">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="48" spans="2:280" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -3476,123 +5614,628 @@
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
-      <c r="K48" s="4">
-        <v>9582</v>
-      </c>
-      <c r="L48" s="4">
-        <v>9588</v>
-      </c>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
-    </row>
-    <row r="49" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BB48" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BC48" s="23">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B49" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4">
-        <v>5072</v>
-      </c>
-      <c r="L49" s="4">
-        <v>6092</v>
-      </c>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-    </row>
-    <row r="50" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="C49" s="9">
+        <f t="shared" ref="C49" si="88">C32/C29</f>
+        <v>0.17066004761663542</v>
+      </c>
+      <c r="D49" s="9">
+        <f t="shared" ref="D49:E49" si="89">D32/D29</f>
+        <v>0.18402275077559463</v>
+      </c>
+      <c r="E49" s="9">
+        <f t="shared" si="89"/>
+        <v>0.16079498517906604</v>
+      </c>
+      <c r="F49" s="9">
+        <f>F32/F29</f>
+        <v>0.17843016912165849</v>
+      </c>
+      <c r="G49" s="9">
+        <f>G32/G29</f>
+        <v>0.20086278998107143</v>
+      </c>
+      <c r="H49" s="9">
+        <f>H32/H29</f>
+        <v>0.20681475091654086</v>
+      </c>
+      <c r="I49" s="9">
+        <f>I32/I29</f>
+        <v>0.21188579540973262</v>
+      </c>
+      <c r="J49" s="9">
+        <f>J32/J29</f>
+        <v>0.19190421573838365</v>
+      </c>
+      <c r="K49" s="9">
+        <f t="shared" ref="K49:N49" si="90">K32/K29</f>
+        <v>0.22572782202691569</v>
+      </c>
+      <c r="L49" s="9">
+        <f t="shared" si="90"/>
+        <v>0.24161294566504407</v>
+      </c>
+      <c r="M49" s="9">
+        <f t="shared" si="90"/>
+        <v>0.23</v>
+      </c>
+      <c r="N49" s="9">
+        <f t="shared" si="90"/>
+        <v>0.23</v>
+      </c>
+      <c r="Z49" s="9">
+        <f t="shared" ref="Z49:AB49" si="91">Z32/Z29</f>
+        <v>0.22929698440855195</v>
+      </c>
+      <c r="AA49" s="9">
+        <f t="shared" si="91"/>
+        <v>0.22601954836535221</v>
+      </c>
+      <c r="AB49" s="9">
+        <f t="shared" si="91"/>
+        <v>0.13628300114786601</v>
+      </c>
+      <c r="AC49" s="9">
+        <f t="shared" ref="AC49:AD49" si="92">AC32/AC29</f>
+        <v>0.14194785588967318</v>
+      </c>
+      <c r="AD49" s="9">
+        <f t="shared" si="92"/>
+        <v>0.13872646474096598</v>
+      </c>
+      <c r="AE49" s="9">
+        <f t="shared" ref="AE49:AF49" si="93">AE32/AE29</f>
+        <v>0.12923019323169083</v>
+      </c>
+      <c r="AF49" s="9">
+        <f t="shared" si="93"/>
+        <v>0.14245494573846432</v>
+      </c>
+      <c r="AG49" s="9">
+        <f t="shared" ref="AG49" si="94">AG32/AG29</f>
+        <v>0.1569601891151346</v>
+      </c>
+      <c r="AH49" s="9">
+        <f t="shared" ref="AH49:AJ49" si="95">AH32/AH29</f>
+        <v>0.17384366431428958</v>
+      </c>
+      <c r="AI49" s="9">
+        <f t="shared" si="95"/>
+        <v>0.20508195802104554</v>
+      </c>
+      <c r="AJ49" s="9">
+        <f t="shared" si="95"/>
+        <v>0.23</v>
+      </c>
+      <c r="AK49" s="9">
+        <f t="shared" ref="AK49:AZ49" si="96">AK32/AK29</f>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="AL49" s="9">
+        <f t="shared" si="96"/>
+        <v>0.23</v>
+      </c>
+      <c r="AM49" s="9">
+        <f t="shared" si="96"/>
+        <v>0.23</v>
+      </c>
+      <c r="AN49" s="9">
+        <f t="shared" si="96"/>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="AO49" s="9">
+        <f t="shared" si="96"/>
+        <v>0.23</v>
+      </c>
+      <c r="AP49" s="9">
+        <f t="shared" si="96"/>
+        <v>0.23</v>
+      </c>
+      <c r="AQ49" s="9">
+        <f t="shared" si="96"/>
+        <v>0.23000000000000004</v>
+      </c>
+      <c r="AR49" s="9">
+        <f t="shared" si="96"/>
+        <v>0.23</v>
+      </c>
+      <c r="AS49" s="9">
+        <f t="shared" si="96"/>
+        <v>0.23</v>
+      </c>
+      <c r="AT49" s="9">
+        <f t="shared" si="96"/>
+        <v>0.23</v>
+      </c>
+      <c r="AU49" s="9">
+        <f t="shared" si="96"/>
+        <v>0.23</v>
+      </c>
+      <c r="AV49" s="9">
+        <f t="shared" si="96"/>
+        <v>0.23</v>
+      </c>
+      <c r="AW49" s="9">
+        <f t="shared" si="96"/>
+        <v>0.23</v>
+      </c>
+      <c r="AX49" s="9">
+        <f t="shared" si="96"/>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="AY49" s="9">
+        <f t="shared" si="96"/>
+        <v>0.23</v>
+      </c>
+      <c r="AZ49" s="9">
+        <f t="shared" si="96"/>
+        <v>0.23</v>
+      </c>
+      <c r="BB49" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="BC49" s="3">
+        <f>NPV(BC48,AJ41:JT41)</f>
+        <v>4097700.2151382873</v>
+      </c>
+      <c r="BD49" s="7"/>
+    </row>
+    <row r="50" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B50" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4">
-        <v>23308</v>
-      </c>
-      <c r="L50" s="4">
-        <v>25190</v>
-      </c>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
-    </row>
-    <row r="51" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="C50" s="9">
+        <f>C37/C29</f>
+        <v>9.1687351198014282E-3</v>
+      </c>
+      <c r="D50" s="9">
+        <f>D37/D29</f>
+        <v>-7.7559462254395031E-4</v>
+      </c>
+      <c r="E50" s="9">
+        <f>E37/E29</f>
+        <v>-2.6434715000728897E-2</v>
+      </c>
+      <c r="F50" s="9">
+        <f>F37/F29</f>
+        <v>2.015139116202946E-2</v>
+      </c>
+      <c r="G50" s="9">
+        <f>G37/G29</f>
+        <v>1.1225073733327463E-2</v>
+      </c>
+      <c r="H50" s="9">
+        <f>H37/H29</f>
+        <v>4.7444468406297171E-3</v>
+      </c>
+      <c r="I50" s="9">
+        <f>I37/I29</f>
+        <v>1.6010726397980915E-2</v>
+      </c>
+      <c r="J50" s="9">
+        <f>J37/J29</f>
+        <v>3.0995608023050885E-2</v>
+      </c>
+      <c r="K50" s="9">
+        <f>K37/K29</f>
+        <v>3.6768744850315845E-2</v>
+      </c>
+      <c r="L50" s="9">
+        <f>L37/L29</f>
+        <v>4.4073148269964481E-2</v>
+      </c>
+      <c r="M50" s="9">
+        <f>M37/M29</f>
+        <v>3.8654236865579082E-2</v>
+      </c>
+      <c r="N50" s="9">
+        <f>N37/N29</f>
+        <v>7.1908400992825749E-2</v>
+      </c>
+      <c r="Z50" s="9">
+        <f>Z37/Z29</f>
+        <v>0.12379796470917748</v>
+      </c>
+      <c r="AA50" s="9">
+        <f>AA37/AA29</f>
+        <v>0.13124368048533872</v>
+      </c>
+      <c r="AB50" s="9">
+        <f>AB37/AB29</f>
+        <v>4.3931962850881773E-2</v>
+      </c>
+      <c r="AC50" s="9">
+        <f>AC37/AC29</f>
+        <v>4.6064710922518258E-2</v>
+      </c>
+      <c r="AD50" s="9">
+        <f>AD37/AD29</f>
+        <v>4.1106303356332592E-2</v>
+      </c>
+      <c r="AE50" s="9">
+        <f>AE37/AE29</f>
+        <v>1.79295713126859E-2</v>
+      </c>
+      <c r="AF50" s="9">
+        <f>AF37/AF29</f>
+        <v>1.1065097474342396E-2</v>
+      </c>
+      <c r="AG50" s="9">
+        <f>AG37/AG29</f>
+        <v>1.0006447106860796E-2</v>
+      </c>
+      <c r="AH50" s="9">
+        <f>AH37/AH29</f>
+        <v>2.000269699285297E-3</v>
+      </c>
+      <c r="AI50" s="9">
+        <f>AI37/AI29</f>
+        <v>2.0867988710913405E-2</v>
+      </c>
+      <c r="AJ50" s="9">
+        <f>AJ37/AJ29</f>
+        <v>4.8549982717871608E-2</v>
+      </c>
+      <c r="AK50" s="9">
+        <f>AK37/AK29</f>
+        <v>5.3596878781943288E-2</v>
+      </c>
+      <c r="AL50" s="9">
+        <f>AL37/AL29</f>
+        <v>5.9895840141801465E-2</v>
+      </c>
+      <c r="AM50" s="9">
+        <f>AM37/AM29</f>
+        <v>6.7384378937087847E-2</v>
+      </c>
+      <c r="AN50" s="9">
+        <f>AN37/AN29</f>
+        <v>7.5938600315438698E-2</v>
+      </c>
+      <c r="AO50" s="9">
+        <f>AO37/AO29</f>
+        <v>8.537893742790037E-2</v>
+      </c>
+      <c r="AP50" s="9">
+        <f>AP37/AP29</f>
+        <v>9.5482673610247301E-2</v>
+      </c>
+      <c r="AQ50" s="9">
+        <f>AQ37/AQ29</f>
+        <v>0.10600152975614245</v>
+      </c>
+      <c r="AR50" s="9">
+        <f>AR37/AR29</f>
+        <v>0.11668151123061762</v>
+      </c>
+      <c r="AS50" s="9">
+        <f>AS37/AS29</f>
+        <v>0.12728186871140579</v>
+      </c>
+      <c r="AT50" s="9">
+        <f>AT37/AT29</f>
+        <v>0.13759050041415344</v>
+      </c>
+      <c r="AU50" s="9">
+        <f>AU37/AU29</f>
+        <v>0.14743417445780305</v>
+      </c>
+      <c r="AV50" s="9">
+        <f>AV37/AV29</f>
+        <v>0.15668317905262574</v>
+      </c>
+      <c r="AW50" s="9">
+        <f>AW37/AW29</f>
+        <v>0.16525104072468344</v>
+      </c>
+      <c r="AX50" s="9">
+        <f>AX37/AX29</f>
+        <v>0.17309057398893957</v>
+      </c>
+      <c r="AY50" s="9">
+        <f>AY37/AY29</f>
+        <v>0.1801877146002264</v>
+      </c>
+      <c r="AZ50" s="9">
+        <f>AZ37/AZ29</f>
+        <v>0.18655444819008546</v>
+      </c>
+      <c r="BB50" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC50" s="3">
+        <f>BC49-Main!K6+Main!K5</f>
+        <v>4106028.2151382873</v>
+      </c>
+      <c r="BD50" s="3"/>
+    </row>
+    <row r="51" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B51" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4">
-        <v>3785</v>
-      </c>
-      <c r="L51" s="4">
-        <v>3774</v>
-      </c>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
-    </row>
-    <row r="52" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4">
-        <v>3522</v>
-      </c>
-      <c r="L52" s="4">
-        <v>3892</v>
-      </c>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4"/>
-    </row>
-    <row r="53" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="C51" s="9">
+        <f>C40/C39</f>
+        <v>-7.7419354838709681E-2</v>
+      </c>
+      <c r="D51" s="9">
+        <f t="shared" ref="D51:N51" si="97">D40/D39</f>
+        <v>3.2962962962962963</v>
+      </c>
+      <c r="E51" s="9">
+        <f t="shared" si="97"/>
+        <v>0.3107255520504732</v>
+      </c>
+      <c r="F51" s="9">
+        <f t="shared" si="97"/>
+        <v>0.50116550116550118</v>
+      </c>
+      <c r="G51" s="9">
+        <f t="shared" si="97"/>
+        <v>-3.0476190476190474</v>
+      </c>
+      <c r="H51" s="9">
+        <f t="shared" si="97"/>
+        <v>-32.75</v>
+      </c>
+      <c r="I51" s="9">
+        <f t="shared" si="97"/>
+        <v>0.68016194331983804</v>
+      </c>
+      <c r="J51" s="9">
+        <f t="shared" si="97"/>
+        <v>0.48614072494669508</v>
+      </c>
+      <c r="K51" s="9">
+        <f t="shared" si="97"/>
+        <v>0.45629202689721421</v>
+      </c>
+      <c r="L51" s="9">
+        <f t="shared" si="97"/>
+        <v>0.24599358974358973</v>
+      </c>
+      <c r="M51" s="9">
+        <f t="shared" si="97"/>
+        <v>0.4</v>
+      </c>
+      <c r="N51" s="9">
+        <f t="shared" si="97"/>
+        <v>0.4</v>
+      </c>
+      <c r="Z51" s="9">
+        <f t="shared" ref="Z51:AZ51" si="98">Z40/Z39</f>
+        <v>0.14231354642313546</v>
+      </c>
+      <c r="AA51" s="9">
+        <f t="shared" si="98"/>
+        <v>9.4262295081967207E-2</v>
+      </c>
+      <c r="AB51" s="9">
+        <f t="shared" si="98"/>
+        <v>0.28412874583795783</v>
+      </c>
+      <c r="AC51" s="9">
+        <f t="shared" si="98"/>
+        <v>0.22308354866494401</v>
+      </c>
+      <c r="AD51" s="9">
+        <f t="shared" si="98"/>
+        <v>0.23046092184368738</v>
+      </c>
+      <c r="AE51" s="9">
+        <f t="shared" si="98"/>
+        <v>0.32441113490364026</v>
+      </c>
+      <c r="AF51" s="9">
+        <f t="shared" si="98"/>
+        <v>1.0716911764705883</v>
+      </c>
+      <c r="AG51" s="9">
+        <f t="shared" si="98"/>
+        <v>0.45849802371541504</v>
+      </c>
+      <c r="AH51" s="9">
+        <f t="shared" si="98"/>
+        <v>-1.1711711711711712</v>
+      </c>
+      <c r="AI51" s="9">
+        <f t="shared" si="98"/>
+        <v>0.61989795918367352</v>
+      </c>
+      <c r="AJ51" s="9">
+        <f t="shared" si="98"/>
+        <v>0.40000000000000008</v>
+      </c>
+      <c r="AK51" s="9">
+        <f t="shared" si="98"/>
+        <v>0.4</v>
+      </c>
+      <c r="AL51" s="9">
+        <f t="shared" si="98"/>
+        <v>0.4</v>
+      </c>
+      <c r="AM51" s="9">
+        <f t="shared" si="98"/>
+        <v>0.4</v>
+      </c>
+      <c r="AN51" s="9">
+        <f t="shared" si="98"/>
+        <v>0.4</v>
+      </c>
+      <c r="AO51" s="9">
+        <f t="shared" si="98"/>
+        <v>0.4</v>
+      </c>
+      <c r="AP51" s="9">
+        <f t="shared" si="98"/>
+        <v>0.4</v>
+      </c>
+      <c r="AQ51" s="9">
+        <f t="shared" si="98"/>
+        <v>0.4</v>
+      </c>
+      <c r="AR51" s="9">
+        <f t="shared" si="98"/>
+        <v>0.4</v>
+      </c>
+      <c r="AS51" s="9">
+        <f t="shared" si="98"/>
+        <v>0.4</v>
+      </c>
+      <c r="AT51" s="9">
+        <f t="shared" si="98"/>
+        <v>0.4</v>
+      </c>
+      <c r="AU51" s="9">
+        <f t="shared" si="98"/>
+        <v>0.4</v>
+      </c>
+      <c r="AV51" s="9">
+        <f t="shared" si="98"/>
+        <v>0.4</v>
+      </c>
+      <c r="AW51" s="9">
+        <f t="shared" si="98"/>
+        <v>0.4</v>
+      </c>
+      <c r="AX51" s="9">
+        <f t="shared" si="98"/>
+        <v>0.4</v>
+      </c>
+      <c r="AY51" s="9">
+        <f t="shared" si="98"/>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="AZ51" s="9">
+        <f t="shared" si="98"/>
+        <v>0.4</v>
+      </c>
+      <c r="BB51" s="3"/>
+      <c r="BC51" s="3"/>
+      <c r="BD51" s="3"/>
+    </row>
+    <row r="52" spans="2:56" x14ac:dyDescent="0.2">
+      <c r="BB52" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="BC52" s="1">
+        <f>BC50/(Main!K3*10)</f>
+        <v>866.2506782992167</v>
+      </c>
+    </row>
+    <row r="53" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
+        <v>59</v>
+      </c>
       <c r="K53" s="4">
-        <f>SUM(K47:K52)</f>
-        <v>61128</v>
+        <f>K54-K65</f>
+        <v>7640</v>
       </c>
       <c r="L53" s="4">
-        <f>SUM(L47:L52)</f>
-        <v>65076</v>
-      </c>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
-    </row>
-    <row r="54" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f>L54-L65</f>
+        <v>8328</v>
+      </c>
+      <c r="M53" s="4">
+        <f>L53+M41</f>
+        <v>8989.1121000000003</v>
+      </c>
+      <c r="N53" s="4">
+        <f>M53+N41</f>
+        <v>10806.031500000001</v>
+      </c>
+      <c r="AI53" s="3"/>
+      <c r="AJ53" s="3">
+        <f>N53</f>
+        <v>10806.031500000001</v>
+      </c>
+      <c r="AK53" s="3">
+        <f>AJ53+AK41</f>
+        <v>16272.775391999998</v>
+      </c>
+      <c r="AL53" s="3">
+        <f>AK53+AL41</f>
+        <v>23847.820552805995</v>
+      </c>
+      <c r="AM53" s="3">
+        <f>AL53+AM41</f>
+        <v>34496.323219068996</v>
+      </c>
+      <c r="AN53" s="3">
+        <f>AM53+AN41</f>
+        <v>49619.927122571607</v>
+      </c>
+      <c r="AO53" s="3">
+        <f>AN53+AO41</f>
+        <v>71245.662490291172</v>
+      </c>
+      <c r="AP53" s="3">
+        <f>AO53+AP41</f>
+        <v>102293.92513828467</v>
+      </c>
+      <c r="AQ53" s="3">
+        <f>AP53+AQ41</f>
+        <v>146957.9733585965</v>
+      </c>
+      <c r="AR53" s="3">
+        <f>AQ53+AR41</f>
+        <v>211240.53200437501</v>
+      </c>
+      <c r="AS53" s="3">
+        <f>AR53+AS41</f>
+        <v>303711.54324204824</v>
+      </c>
+      <c r="AT53" s="3">
+        <f>AS53+AT41</f>
+        <v>436576.97909397737</v>
+      </c>
+      <c r="AU53" s="3">
+        <f>AT53+AU41</f>
+        <v>627184.91189854778</v>
+      </c>
+      <c r="AV53" s="3">
+        <f>AU53+AV41</f>
+        <v>900145.89879438886</v>
+      </c>
+      <c r="AW53" s="3">
+        <f>AV53+AW41</f>
+        <v>1290316.0207378073</v>
+      </c>
+      <c r="AX53" s="3">
+        <f>AW53+AX41</f>
+        <v>1846990.811865329</v>
+      </c>
+      <c r="AY53" s="3">
+        <f>AX53+AY41</f>
+        <v>2639798.2857208536</v>
+      </c>
+      <c r="AZ53" s="3">
+        <f>AY53+AZ41</f>
+        <v>3766975.3654221161</v>
+      </c>
+      <c r="BB53" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC53" s="1">
+        <v>829.53</v>
+      </c>
+    </row>
+    <row r="54" spans="2:56" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -3601,14 +6244,24 @@
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
+      <c r="K54" s="4">
+        <f>12470+3389</f>
+        <v>15859</v>
+      </c>
+      <c r="L54" s="4">
+        <f>12521+4019</f>
+        <v>16540</v>
+      </c>
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
-    </row>
-    <row r="55" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BC54" s="21">
+        <f>BC52/BC53-1</f>
+        <v>4.4266847852659552E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:56" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -3619,17 +6272,17 @@
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4">
-        <v>14990</v>
+        <v>9582</v>
       </c>
       <c r="L55" s="4">
-        <v>16123</v>
+        <v>9588</v>
       </c>
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
     </row>
-    <row r="56" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:56" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -3640,17 +6293,17 @@
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4">
-        <v>9431</v>
+        <v>5072</v>
       </c>
       <c r="L56" s="4">
-        <v>9613</v>
+        <v>6092</v>
       </c>
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
     </row>
-    <row r="57" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:56" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -3661,17 +6314,17 @@
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4">
-        <v>3766</v>
+        <v>23308</v>
       </c>
       <c r="L57" s="4">
-        <v>3851</v>
+        <v>25190</v>
       </c>
       <c r="M57" s="4"/>
       <c r="N57" s="4"/>
     </row>
-    <row r="58" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:56" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="3" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -3682,17 +6335,17 @@
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4">
-        <v>8219</v>
+        <v>3785</v>
       </c>
       <c r="L58" s="4">
-        <v>8212</v>
+        <v>3774</v>
       </c>
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
     </row>
-    <row r="59" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:56" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -3703,17 +6356,17 @@
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
       <c r="K59" s="4">
-        <v>9966</v>
+        <v>3522</v>
       </c>
       <c r="L59" s="4">
-        <v>10739</v>
+        <v>3892</v>
       </c>
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
     </row>
-    <row r="60" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:56" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -3724,18 +6377,17 @@
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4">
-        <v>14756</v>
+        <f>SUM(K54:K59)</f>
+        <v>61128</v>
       </c>
       <c r="L60" s="4">
-        <v>16538</v>
+        <f>SUM(L54:L59)</f>
+        <v>65076</v>
       </c>
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
     </row>
-    <row r="61" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="3" t="s">
-        <v>58</v>
-      </c>
+    <row r="61" spans="2:56" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -3744,16 +6396,159 @@
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
-      <c r="K61" s="4">
-        <f>SUM(K55:K60)</f>
-        <v>61128</v>
-      </c>
-      <c r="L61" s="4">
-        <f>SUM(L55:L60)</f>
-        <v>65076</v>
-      </c>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
+    </row>
+    <row r="62" spans="2:56" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4">
+        <v>14990</v>
+      </c>
+      <c r="L62" s="4">
+        <v>16123</v>
+      </c>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+    </row>
+    <row r="63" spans="2:56" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4">
+        <v>9431</v>
+      </c>
+      <c r="L63" s="4">
+        <v>9613</v>
+      </c>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+    </row>
+    <row r="64" spans="2:56" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4">
+        <v>3766</v>
+      </c>
+      <c r="L64" s="4">
+        <v>3851</v>
+      </c>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
+    </row>
+    <row r="65" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4">
+        <v>8219</v>
+      </c>
+      <c r="L65" s="4">
+        <v>8212</v>
+      </c>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
+    </row>
+    <row r="66" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4">
+        <v>9966</v>
+      </c>
+      <c r="L66" s="4">
+        <v>10739</v>
+      </c>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
+    </row>
+    <row r="67" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4">
+        <v>14756</v>
+      </c>
+      <c r="L67" s="4">
+        <v>16538</v>
+      </c>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4"/>
+    </row>
+    <row r="68" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4">
+        <f>SUM(K62:K67)</f>
+        <v>61128</v>
+      </c>
+      <c r="L68" s="4">
+        <f>SUM(L62:L67)</f>
+        <v>65076</v>
+      </c>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
